--- a/tests/models/potable_water_treatment_plant/pwtp_400ML.xlsx
+++ b/tests/models/potable_water_treatment_plant/pwtp_400ML.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/tests/models/potable_water_treatment_plant/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{035298CD-8AD1-564D-A2B4-4B99FA41CD47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28320" windowHeight="16905" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16900" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_description" sheetId="14" r:id="rId1"/>
@@ -20,7 +26,7 @@
   <definedNames>
     <definedName name="ComponentTypeList">asset_names!$A$2:$A$30</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2319" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="222">
   <si>
     <t>component_type</t>
   </si>
@@ -690,18 +696,24 @@
   </si>
   <si>
     <t>Not Available.</t>
+  </si>
+  <si>
+    <t>recovery_function</t>
+  </si>
+  <si>
+    <t>Normal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2495,6 +2507,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2754,28 +2769,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="20.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="113.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="113.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="165" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -2786,7 +2801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>202</v>
       </c>
@@ -2797,7 +2812,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>204</v>
       </c>
@@ -2808,7 +2823,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>205</v>
       </c>
@@ -2819,7 +2834,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -2827,7 +2842,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="19.5" customHeight="1">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -2838,7 +2853,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>208</v>
       </c>
@@ -2852,8 +2867,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:G88"/>
@@ -2862,11 +2877,11 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="29.875" style="53" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="50.875" style="53" customWidth="1"/>
+    <col min="1" max="1" width="29.83203125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" style="53" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="53" customWidth="1"/>
     <col min="5" max="5" width="19" style="53" customWidth="1"/>
     <col min="6" max="6" width="39.5" style="53" bestFit="1" customWidth="1"/>
@@ -2874,7 +2889,7 @@
     <col min="8" max="16384" width="11" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>23</v>
       </c>
@@ -2897,7 +2912,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>48</v>
       </c>
@@ -2920,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>155</v>
       </c>
@@ -2943,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A4" s="57" t="s">
         <v>165</v>
       </c>
@@ -2966,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A5" s="57" t="s">
         <v>166</v>
       </c>
@@ -2989,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A6" s="57" t="s">
         <v>167</v>
       </c>
@@ -3012,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A7" s="57" t="s">
         <v>194</v>
       </c>
@@ -3035,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A8" s="57" t="s">
         <v>118</v>
       </c>
@@ -3058,7 +3073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A9" s="57" t="s">
         <v>117</v>
       </c>
@@ -3081,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A10" s="57" t="s">
         <v>124</v>
       </c>
@@ -3104,7 +3119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A11" s="57" t="s">
         <v>125</v>
       </c>
@@ -3127,7 +3142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A12" s="57" t="s">
         <v>126</v>
       </c>
@@ -3150,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A13" s="57" t="s">
         <v>127</v>
       </c>
@@ -3173,7 +3188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="57" t="s">
         <v>128</v>
       </c>
@@ -3196,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A15" s="57" t="s">
         <v>129</v>
       </c>
@@ -3219,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A16" s="57" t="s">
         <v>130</v>
       </c>
@@ -3242,7 +3257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A17" s="57" t="s">
         <v>131</v>
       </c>
@@ -3265,7 +3280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>70</v>
       </c>
@@ -3288,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A19" s="57" t="s">
         <v>71</v>
       </c>
@@ -3311,7 +3326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A20" s="57" t="s">
         <v>72</v>
       </c>
@@ -3334,7 +3349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A21" s="57" t="s">
         <v>73</v>
       </c>
@@ -3357,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A22" s="57" t="s">
         <v>74</v>
       </c>
@@ -3380,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A23" s="57" t="s">
         <v>75</v>
       </c>
@@ -3403,7 +3418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A24" s="57" t="s">
         <v>76</v>
       </c>
@@ -3426,7 +3441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A25" s="57" t="s">
         <v>77</v>
       </c>
@@ -3449,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A26" s="62" t="s">
         <v>100</v>
       </c>
@@ -3472,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A27" s="57" t="s">
         <v>78</v>
       </c>
@@ -3495,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A28" s="57" t="s">
         <v>79</v>
       </c>
@@ -3518,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A29" s="57" t="s">
         <v>80</v>
       </c>
@@ -3541,7 +3556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A30" s="57" t="s">
         <v>81</v>
       </c>
@@ -3564,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A31" s="57" t="s">
         <v>82</v>
       </c>
@@ -3587,7 +3602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A32" s="57" t="s">
         <v>83</v>
       </c>
@@ -3610,7 +3625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>84</v>
       </c>
@@ -3633,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A34" s="57" t="s">
         <v>85</v>
       </c>
@@ -3656,7 +3671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A35" s="57" t="s">
         <v>86</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A36" s="57" t="s">
         <v>132</v>
       </c>
@@ -3702,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>133</v>
       </c>
@@ -3725,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A38" s="57" t="s">
         <v>87</v>
       </c>
@@ -3748,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="57" t="s">
         <v>88</v>
       </c>
@@ -3771,7 +3786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A40" s="57" t="s">
         <v>89</v>
       </c>
@@ -3794,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A41" s="57" t="s">
         <v>90</v>
       </c>
@@ -3817,7 +3832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>134</v>
       </c>
@@ -3840,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A43" s="57" t="s">
         <v>135</v>
       </c>
@@ -3863,7 +3878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A44" s="57" t="s">
         <v>136</v>
       </c>
@@ -3886,7 +3901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A45" s="57" t="s">
         <v>137</v>
       </c>
@@ -3909,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="57" t="s">
         <v>138</v>
       </c>
@@ -3932,7 +3947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A47" s="57" t="s">
         <v>139</v>
       </c>
@@ -3955,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A48" s="57" t="s">
         <v>140</v>
       </c>
@@ -3978,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A49" s="57" t="s">
         <v>141</v>
       </c>
@@ -4001,7 +4016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A50" s="57" t="s">
         <v>91</v>
       </c>
@@ -4024,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A51" s="57" t="s">
         <v>92</v>
       </c>
@@ -4047,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A52" s="57" t="s">
         <v>93</v>
       </c>
@@ -4070,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A53" s="57" t="s">
         <v>94</v>
       </c>
@@ -4093,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A54" s="57" t="s">
         <v>95</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A55" s="57" t="s">
         <v>96</v>
       </c>
@@ -4139,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A56" s="57" t="s">
         <v>97</v>
       </c>
@@ -4162,7 +4177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A57" s="57" t="s">
         <v>98</v>
       </c>
@@ -4185,7 +4200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A58" s="57" t="s">
         <v>142</v>
       </c>
@@ -4208,7 +4223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A59" s="57" t="s">
         <v>143</v>
       </c>
@@ -4231,7 +4246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A60" s="57" t="s">
         <v>170</v>
       </c>
@@ -4254,7 +4269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A61" s="57" t="s">
         <v>119</v>
       </c>
@@ -4277,7 +4292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A62" s="57" t="s">
         <v>196</v>
       </c>
@@ -4300,7 +4315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A63" s="57" t="s">
         <v>171</v>
       </c>
@@ -4323,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A64" s="57" t="s">
         <v>172</v>
       </c>
@@ -4346,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A65" s="57" t="s">
         <v>101</v>
       </c>
@@ -4369,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A66" s="57" t="s">
         <v>102</v>
       </c>
@@ -4392,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A67" s="57" t="s">
         <v>144</v>
       </c>
@@ -4415,7 +4430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A68" s="57" t="s">
         <v>145</v>
       </c>
@@ -4438,7 +4453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A69" s="57" t="s">
         <v>146</v>
       </c>
@@ -4461,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A70" s="57" t="s">
         <v>147</v>
       </c>
@@ -4484,7 +4499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A71" s="57" t="s">
         <v>148</v>
       </c>
@@ -4507,7 +4522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A72" s="57" t="s">
         <v>103</v>
       </c>
@@ -4530,7 +4545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A73" s="57" t="s">
         <v>104</v>
       </c>
@@ -4553,7 +4568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A74" s="57" t="s">
         <v>105</v>
       </c>
@@ -4576,7 +4591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A75" s="57" t="s">
         <v>106</v>
       </c>
@@ -4599,7 +4614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A76" s="57" t="s">
         <v>107</v>
       </c>
@@ -4622,7 +4637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A77" s="57" t="s">
         <v>108</v>
       </c>
@@ -4645,7 +4660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A78" s="57" t="s">
         <v>149</v>
       </c>
@@ -4668,7 +4683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A79" s="57" t="s">
         <v>150</v>
       </c>
@@ -4691,7 +4706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A80" s="57" t="s">
         <v>174</v>
       </c>
@@ -4714,7 +4729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A81" s="57" t="s">
         <v>120</v>
       </c>
@@ -4737,7 +4752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A82" s="57" t="s">
         <v>121</v>
       </c>
@@ -4760,7 +4775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A83" s="57" t="s">
         <v>114</v>
       </c>
@@ -4783,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A84" s="57" t="s">
         <v>115</v>
       </c>
@@ -4806,7 +4821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A85" s="57" t="s">
         <v>12</v>
       </c>
@@ -4829,7 +4844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="57" customFormat="1" ht="18" customHeight="1">
       <c r="A86" s="57" t="s">
         <v>13</v>
       </c>
@@ -4852,12 +4867,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7">
       <c r="D88" s="66"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B86">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B9 B10:B86" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -4867,8 +4882,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF66CCFF"/>
   </sheetPr>
   <dimension ref="A1:D129"/>
@@ -4877,16 +4892,16 @@
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="27.125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="30.625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="57" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="57" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="57"/>
+    <col min="4" max="4" width="14.33203125" style="57" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="54" t="s">
         <v>35</v>
       </c>
@@ -4900,7 +4915,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>165</v>
       </c>
@@ -4914,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="57" t="s">
         <v>166</v>
       </c>
@@ -4928,7 +4943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="57" t="s">
         <v>48</v>
       </c>
@@ -4942,7 +4957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="20" customHeight="1">
       <c r="A5" s="57" t="s">
         <v>155</v>
       </c>
@@ -4956,7 +4971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="20" customHeight="1">
       <c r="A6" s="57" t="s">
         <v>167</v>
       </c>
@@ -4970,7 +4985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="20" customHeight="1">
       <c r="A7" s="57" t="s">
         <v>118</v>
       </c>
@@ -4984,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="20" customHeight="1">
       <c r="A8" s="57" t="s">
         <v>117</v>
       </c>
@@ -4998,7 +5013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="20" customHeight="1">
       <c r="A9" s="57" t="s">
         <v>194</v>
       </c>
@@ -5012,7 +5027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="20" customHeight="1">
       <c r="A10" s="57" t="s">
         <v>194</v>
       </c>
@@ -5026,7 +5041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="20" customHeight="1">
       <c r="A11" s="57" t="s">
         <v>194</v>
       </c>
@@ -5040,7 +5055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="20" customHeight="1">
       <c r="A12" s="57" t="s">
         <v>194</v>
       </c>
@@ -5054,7 +5069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="20" customHeight="1">
       <c r="A13" s="57" t="s">
         <v>194</v>
       </c>
@@ -5068,7 +5083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="20" customHeight="1">
       <c r="A14" s="57" t="s">
         <v>194</v>
       </c>
@@ -5082,7 +5097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="20" customHeight="1">
       <c r="A15" s="57" t="s">
         <v>194</v>
       </c>
@@ -5096,7 +5111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="20" customHeight="1">
       <c r="A16" s="57" t="s">
         <v>194</v>
       </c>
@@ -5110,7 +5125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="20" customHeight="1">
       <c r="A17" s="57" t="s">
         <v>124</v>
       </c>
@@ -5124,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="20" customHeight="1">
       <c r="A18" s="57" t="s">
         <v>125</v>
       </c>
@@ -5138,7 +5153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="20" customHeight="1">
       <c r="A19" s="57" t="s">
         <v>126</v>
       </c>
@@ -5152,7 +5167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="69" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="69" customFormat="1" ht="20" customHeight="1">
       <c r="A20" s="57" t="s">
         <v>127</v>
       </c>
@@ -5166,7 +5181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" ht="20" customHeight="1">
       <c r="A21" s="57" t="s">
         <v>128</v>
       </c>
@@ -5180,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="20" customHeight="1">
       <c r="A22" s="57" t="s">
         <v>129</v>
       </c>
@@ -5194,7 +5209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="20" customHeight="1">
       <c r="A23" s="57" t="s">
         <v>130</v>
       </c>
@@ -5208,7 +5223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="20" customHeight="1">
       <c r="A24" s="57" t="s">
         <v>131</v>
       </c>
@@ -5222,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="20" customHeight="1">
       <c r="A25" s="62" t="s">
         <v>100</v>
       </c>
@@ -5236,7 +5251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" ht="20" customHeight="1">
       <c r="A26" s="62" t="s">
         <v>100</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" ht="20" customHeight="1">
       <c r="A27" s="62" t="s">
         <v>100</v>
       </c>
@@ -5264,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="20" customHeight="1">
       <c r="A28" s="62" t="s">
         <v>100</v>
       </c>
@@ -5278,7 +5293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="20" customHeight="1">
       <c r="A29" s="62" t="s">
         <v>100</v>
       </c>
@@ -5292,7 +5307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="20" customHeight="1">
       <c r="A30" s="62" t="s">
         <v>100</v>
       </c>
@@ -5306,7 +5321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" ht="20" customHeight="1">
       <c r="A31" s="62" t="s">
         <v>100</v>
       </c>
@@ -5320,7 +5335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" ht="20" customHeight="1">
       <c r="A32" s="62" t="s">
         <v>100</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="20" customHeight="1">
       <c r="A33" s="57" t="s">
         <v>70</v>
       </c>
@@ -5348,7 +5363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="20" customHeight="1">
       <c r="A34" s="57" t="s">
         <v>71</v>
       </c>
@@ -5362,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="20" customHeight="1">
       <c r="A35" s="57" t="s">
         <v>72</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" ht="20" customHeight="1">
       <c r="A36" s="57" t="s">
         <v>73</v>
       </c>
@@ -5390,7 +5405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="20" customHeight="1">
       <c r="A37" s="57" t="s">
         <v>74</v>
       </c>
@@ -5404,7 +5419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" ht="20" customHeight="1">
       <c r="A38" s="57" t="s">
         <v>75</v>
       </c>
@@ -5418,7 +5433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="20" customHeight="1">
       <c r="A39" s="57" t="s">
         <v>76</v>
       </c>
@@ -5432,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="20" customHeight="1">
       <c r="A40" s="57" t="s">
         <v>77</v>
       </c>
@@ -5446,7 +5461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" ht="20" customHeight="1">
       <c r="A41" s="57" t="s">
         <v>78</v>
       </c>
@@ -5460,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" ht="20" customHeight="1">
       <c r="A42" s="57" t="s">
         <v>79</v>
       </c>
@@ -5474,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" ht="20" customHeight="1">
       <c r="A43" s="57" t="s">
         <v>80</v>
       </c>
@@ -5488,7 +5503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" ht="20" customHeight="1">
       <c r="A44" s="57" t="s">
         <v>81</v>
       </c>
@@ -5502,7 +5517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" ht="20" customHeight="1">
       <c r="A45" s="57" t="s">
         <v>82</v>
       </c>
@@ -5516,7 +5531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="20" customHeight="1">
       <c r="A46" s="57" t="s">
         <v>83</v>
       </c>
@@ -5530,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="20" customHeight="1">
       <c r="A47" s="57" t="s">
         <v>84</v>
       </c>
@@ -5544,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" ht="20" customHeight="1">
       <c r="A48" s="57" t="s">
         <v>85</v>
       </c>
@@ -5558,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="20" customHeight="1">
       <c r="A49" s="57" t="s">
         <v>86</v>
       </c>
@@ -5572,7 +5587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="20" customHeight="1">
       <c r="A50" s="57" t="s">
         <v>86</v>
       </c>
@@ -5586,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="20" customHeight="1">
       <c r="A51" s="57" t="s">
         <v>132</v>
       </c>
@@ -5600,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="20" customHeight="1">
       <c r="A52" s="57" t="s">
         <v>133</v>
       </c>
@@ -5614,7 +5629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="20" customHeight="1">
       <c r="A53" s="57" t="s">
         <v>87</v>
       </c>
@@ -5628,7 +5643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="20" customHeight="1">
       <c r="A54" s="57" t="s">
         <v>87</v>
       </c>
@@ -5642,7 +5657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="20" customHeight="1">
       <c r="A55" s="57" t="s">
         <v>88</v>
       </c>
@@ -5656,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="20" customHeight="1">
       <c r="A56" s="57" t="s">
         <v>89</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="20" customHeight="1">
       <c r="A57" s="57" t="s">
         <v>90</v>
       </c>
@@ -5684,7 +5699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="20" customHeight="1">
       <c r="A58" s="57" t="s">
         <v>90</v>
       </c>
@@ -5698,7 +5713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" ht="20" customHeight="1">
       <c r="A59" s="57" t="s">
         <v>90</v>
       </c>
@@ -5712,7 +5727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" ht="20" customHeight="1">
       <c r="A60" s="57" t="s">
         <v>90</v>
       </c>
@@ -5726,7 +5741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="20" customHeight="1">
       <c r="A61" s="57" t="s">
         <v>90</v>
       </c>
@@ -5740,7 +5755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="20" customHeight="1">
       <c r="A62" s="57" t="s">
         <v>90</v>
       </c>
@@ -5754,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="20" customHeight="1">
       <c r="A63" s="57" t="s">
         <v>90</v>
       </c>
@@ -5768,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" ht="20" customHeight="1">
       <c r="A64" s="57" t="s">
         <v>90</v>
       </c>
@@ -5782,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" ht="20" customHeight="1">
       <c r="A65" s="57" t="s">
         <v>134</v>
       </c>
@@ -5796,7 +5811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="20" customHeight="1">
       <c r="A66" s="57" t="s">
         <v>135</v>
       </c>
@@ -5810,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" ht="20" customHeight="1">
       <c r="A67" s="57" t="s">
         <v>136</v>
       </c>
@@ -5824,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="20" customHeight="1">
       <c r="A68" s="57" t="s">
         <v>137</v>
       </c>
@@ -5838,7 +5853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" ht="20" customHeight="1">
       <c r="A69" s="57" t="s">
         <v>138</v>
       </c>
@@ -5852,7 +5867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" ht="20" customHeight="1">
       <c r="A70" s="57" t="s">
         <v>139</v>
       </c>
@@ -5866,7 +5881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" ht="20" customHeight="1">
       <c r="A71" s="57" t="s">
         <v>140</v>
       </c>
@@ -5880,7 +5895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" ht="20" customHeight="1">
       <c r="A72" s="57" t="s">
         <v>141</v>
       </c>
@@ -5894,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" ht="20" customHeight="1">
       <c r="A73" s="57" t="s">
         <v>91</v>
       </c>
@@ -5908,7 +5923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" ht="20" customHeight="1">
       <c r="A74" s="57" t="s">
         <v>92</v>
       </c>
@@ -5922,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" ht="20" customHeight="1">
       <c r="A75" s="57" t="s">
         <v>93</v>
       </c>
@@ -5936,7 +5951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" ht="20" customHeight="1">
       <c r="A76" s="57" t="s">
         <v>94</v>
       </c>
@@ -5950,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" ht="20" customHeight="1">
       <c r="A77" s="57" t="s">
         <v>95</v>
       </c>
@@ -5964,7 +5979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="20" customHeight="1">
       <c r="A78" s="57" t="s">
         <v>96</v>
       </c>
@@ -5978,7 +5993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" ht="20" customHeight="1">
       <c r="A79" s="57" t="s">
         <v>97</v>
       </c>
@@ -5992,7 +6007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" ht="20" customHeight="1">
       <c r="A80" s="57" t="s">
         <v>98</v>
       </c>
@@ -6006,7 +6021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" ht="20" customHeight="1">
       <c r="A81" s="57" t="s">
         <v>142</v>
       </c>
@@ -6020,7 +6035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" ht="20" customHeight="1">
       <c r="A82" s="57" t="s">
         <v>143</v>
       </c>
@@ -6034,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="20" customHeight="1">
       <c r="A83" s="57" t="s">
         <v>170</v>
       </c>
@@ -6048,7 +6063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" ht="20" customHeight="1">
       <c r="A84" s="57" t="s">
         <v>119</v>
       </c>
@@ -6062,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" ht="20" customHeight="1">
       <c r="A85" s="57" t="s">
         <v>196</v>
       </c>
@@ -6076,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" ht="20" customHeight="1">
       <c r="A86" s="57" t="s">
         <v>171</v>
       </c>
@@ -6090,7 +6105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" ht="20" customHeight="1">
       <c r="A87" s="57" t="s">
         <v>172</v>
       </c>
@@ -6104,7 +6119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" ht="20" customHeight="1">
       <c r="A88" s="57" t="s">
         <v>172</v>
       </c>
@@ -6118,7 +6133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" ht="20" customHeight="1">
       <c r="A89" s="57" t="s">
         <v>101</v>
       </c>
@@ -6132,7 +6147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" ht="20" customHeight="1">
       <c r="A90" s="57" t="s">
         <v>102</v>
       </c>
@@ -6146,7 +6161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="20" customHeight="1">
       <c r="A91" s="57" t="s">
         <v>144</v>
       </c>
@@ -6160,7 +6175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" ht="20" customHeight="1">
       <c r="A92" s="57" t="s">
         <v>145</v>
       </c>
@@ -6174,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="20" customHeight="1">
       <c r="A93" s="57" t="s">
         <v>146</v>
       </c>
@@ -6188,7 +6203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" ht="20" customHeight="1">
       <c r="A94" s="57" t="s">
         <v>146</v>
       </c>
@@ -6202,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" ht="20" customHeight="1">
       <c r="A95" s="57" t="s">
         <v>147</v>
       </c>
@@ -6216,7 +6231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" ht="20" customHeight="1">
       <c r="A96" s="57" t="s">
         <v>147</v>
       </c>
@@ -6230,7 +6245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" ht="20" customHeight="1">
       <c r="A97" s="57" t="s">
         <v>148</v>
       </c>
@@ -6244,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" ht="20" customHeight="1">
       <c r="A98" s="57" t="s">
         <v>148</v>
       </c>
@@ -6258,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" ht="20" customHeight="1">
       <c r="A99" s="57" t="s">
         <v>148</v>
       </c>
@@ -6272,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" ht="20" customHeight="1">
       <c r="A100" s="57" t="s">
         <v>148</v>
       </c>
@@ -6286,7 +6301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" ht="20" customHeight="1">
       <c r="A101" s="57" t="s">
         <v>103</v>
       </c>
@@ -6300,7 +6315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" ht="20" customHeight="1">
       <c r="A102" s="57" t="s">
         <v>104</v>
       </c>
@@ -6314,7 +6329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" ht="20" customHeight="1">
       <c r="A103" s="57" t="s">
         <v>105</v>
       </c>
@@ -6328,7 +6343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" ht="20" customHeight="1">
       <c r="A104" s="57" t="s">
         <v>106</v>
       </c>
@@ -6342,7 +6357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" ht="20" customHeight="1">
       <c r="A105" s="57" t="s">
         <v>107</v>
       </c>
@@ -6356,7 +6371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" ht="20" customHeight="1">
       <c r="A106" s="57" t="s">
         <v>108</v>
       </c>
@@ -6370,7 +6385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" ht="20" customHeight="1">
       <c r="A107" s="57" t="s">
         <v>149</v>
       </c>
@@ -6384,7 +6399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" ht="20" customHeight="1">
       <c r="A108" s="57" t="s">
         <v>149</v>
       </c>
@@ -6398,7 +6413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" ht="20" customHeight="1">
       <c r="A109" s="57" t="s">
         <v>120</v>
       </c>
@@ -6412,7 +6427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" ht="20" customHeight="1">
       <c r="A110" s="57" t="s">
         <v>121</v>
       </c>
@@ -6426,7 +6441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" ht="20" customHeight="1">
       <c r="A111" s="57" t="s">
         <v>120</v>
       </c>
@@ -6440,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" ht="20" customHeight="1">
       <c r="A112" s="57" t="s">
         <v>121</v>
       </c>
@@ -6454,7 +6469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" ht="20" customHeight="1">
       <c r="A113" s="57" t="s">
         <v>150</v>
       </c>
@@ -6468,7 +6483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" ht="20" customHeight="1">
       <c r="A114" s="57" t="s">
         <v>174</v>
       </c>
@@ -6482,7 +6497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" ht="20" customHeight="1">
       <c r="A115" s="57" t="s">
         <v>114</v>
       </c>
@@ -6496,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="20" customHeight="1">
       <c r="A116" s="57" t="s">
         <v>115</v>
       </c>
@@ -6510,19 +6525,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:4" ht="20" customHeight="1"/>
+    <row r="118" spans="1:4" ht="20" customHeight="1"/>
+    <row r="119" spans="1:4" ht="20" customHeight="1"/>
+    <row r="120" spans="1:4" ht="20" customHeight="1"/>
+    <row r="121" spans="1:4" ht="20" customHeight="1"/>
+    <row r="122" spans="1:4" ht="20" customHeight="1"/>
+    <row r="123" spans="1:4" ht="20" customHeight="1"/>
+    <row r="124" spans="1:4" ht="20" customHeight="1"/>
+    <row r="125" spans="1:4" ht="20" customHeight="1"/>
+    <row r="126" spans="1:4" ht="20" customHeight="1"/>
+    <row r="127" spans="1:4" ht="20" customHeight="1"/>
+    <row r="128" spans="1:4" ht="20" customHeight="1"/>
+    <row r="129" ht="20" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6530,8 +6545,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
   <dimension ref="A1:D8"/>
@@ -6540,16 +6555,16 @@
       <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.5" style="57" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="57" customWidth="1"/>
-    <col min="3" max="3" width="21.125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" style="57" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" style="57" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="57" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="57"/>
+    <col min="5" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="26" customHeight="1">
       <c r="A1" s="88" t="s">
         <v>38</v>
       </c>
@@ -6563,7 +6578,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="20" customHeight="1">
       <c r="A2" s="70" t="s">
         <v>165</v>
       </c>
@@ -6577,7 +6592,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="20" customHeight="1">
       <c r="A3" s="70" t="s">
         <v>166</v>
       </c>
@@ -6591,7 +6606,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="20" customHeight="1">
       <c r="A4" s="75" t="s">
         <v>48</v>
       </c>
@@ -6605,16 +6620,16 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="C5" s="73"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="C6" s="73"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="C7" s="73"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="C8" s="73"/>
     </row>
   </sheetData>
@@ -6624,8 +6639,8 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF80FF00"/>
   </sheetPr>
   <dimension ref="A1:F3"/>
@@ -6634,17 +6649,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="25.5" style="57" customWidth="1"/>
-    <col min="2" max="2" width="22.625" style="57" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="57" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="57" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" style="57" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="57" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="57" customWidth="1"/>
     <col min="5" max="5" width="14" style="57" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="57"/>
+    <col min="6" max="16384" width="10.83203125" style="57"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="26" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>41</v>
       </c>
@@ -6661,7 +6676,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="20" customHeight="1">
       <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
@@ -6679,7 +6694,7 @@
       </c>
       <c r="F2" s="73"/>
     </row>
-    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="20" customHeight="1">
       <c r="A3" s="78" t="s">
         <v>13</v>
       </c>
@@ -6703,33 +6718,36 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="92"/>
+    <col min="1" max="1" width="10.83203125" style="92"/>
     <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
-    <col min="3" max="4" width="13.625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.125" style="6" customWidth="1"/>
-    <col min="8" max="12" width="11.125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="12.625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="65.625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="44.625" style="7" customWidth="1"/>
-    <col min="18" max="16384" width="10.875" style="7"/>
+    <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" style="5" customWidth="1"/>
+    <col min="6" max="7" width="14.1640625" style="6" customWidth="1"/>
+    <col min="8" max="10" width="11.1640625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="12" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="15.5" style="6" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.1640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="19.1640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="65.6640625" style="5" customWidth="1"/>
+    <col min="18" max="18" width="44.6640625" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>213</v>
       </c>
@@ -6767,19 +6785,22 @@
         <v>217</v>
       </c>
       <c r="M1" s="48" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="34" t="s">
+      <c r="Q1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -6810,27 +6831,30 @@
       <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M2" s="12">
+      <c r="M2" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N2" s="12">
         <v>0.2</v>
       </c>
-      <c r="N2" s="13">
-        <f t="shared" ref="N2:N41" si="0">O2/NORMINV(0.95,0,1)</f>
+      <c r="O2" s="13">
+        <f t="shared" ref="O2:O41" si="0">P2/NORMINV(0.95,0,1)</f>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O2" s="14">
+      <c r="P2" s="14">
         <v>0.1</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A3" s="91">
         <v>2</v>
       </c>
@@ -6840,7 +6864,7 @@
       <c r="C3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -6867,21 +6891,24 @@
       <c r="L3" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M3" s="12">
+      <c r="M3" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N3" s="12">
         <v>0.5</v>
       </c>
-      <c r="N3" s="13">
+      <c r="O3" s="13">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O3" s="14">
+      <c r="P3" s="14">
         <v>0.1</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="Q3" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A4" s="91">
         <v>3</v>
       </c>
@@ -6891,7 +6918,7 @@
       <c r="C4" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E4" s="17" t="s">
@@ -6918,21 +6945,24 @@
       <c r="L4" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="12">
-        <v>1</v>
-      </c>
-      <c r="N4" s="13">
+      <c r="M4" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N4" s="12">
+        <v>1</v>
+      </c>
+      <c r="O4" s="13">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O4" s="14">
+      <c r="P4" s="14">
         <v>0.5</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A5" s="91">
         <v>4</v>
       </c>
@@ -6942,7 +6972,7 @@
       <c r="C5" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E5" s="17" t="s">
@@ -6969,21 +6999,24 @@
       <c r="L5" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N5" s="12">
         <v>4.3</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O5" s="14">
-        <v>1</v>
-      </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="91">
         <v>5</v>
       </c>
@@ -7014,27 +7047,30 @@
       <c r="J6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K6" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N6" s="20">
         <v>3</v>
       </c>
-      <c r="N6" s="10">
+      <c r="O6" s="10">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O6" s="21">
-        <v>1</v>
-      </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A7" s="91">
         <v>6</v>
       </c>
@@ -7044,7 +7080,7 @@
       <c r="C7" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E7" s="17" t="s">
@@ -7071,21 +7107,24 @@
       <c r="L7" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M7" s="22">
+      <c r="M7" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N7" s="22">
         <v>20</v>
       </c>
-      <c r="N7" s="18">
+      <c r="O7" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O7" s="23">
+      <c r="P7" s="23">
         <v>2</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A8" s="91">
         <v>7</v>
       </c>
@@ -7095,7 +7134,7 @@
       <c r="C8" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -7122,21 +7161,24 @@
       <c r="L8" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M8" s="22">
+      <c r="M8" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N8" s="22">
         <v>60</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O8" s="23">
+      <c r="P8" s="23">
         <v>4</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="91">
         <v>8</v>
       </c>
@@ -7146,7 +7188,7 @@
       <c r="C9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E9" s="17" t="s">
@@ -7173,22 +7215,25 @@
       <c r="L9" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N9" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="N9" s="25">
+      <c r="O9" s="25">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="O9" s="26">
+      <c r="P9" s="26">
         <v>8</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="27" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="27" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="91">
         <v>9</v>
       </c>
@@ -7219,27 +7264,30 @@
       <c r="J10" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M10" s="12">
+      <c r="M10" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N10" s="12">
         <v>0.2</v>
       </c>
-      <c r="N10" s="13">
+      <c r="O10" s="13">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O10" s="14">
+      <c r="P10" s="14">
         <v>0.1</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="91">
         <v>10</v>
       </c>
@@ -7249,7 +7297,7 @@
       <c r="C11" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -7276,21 +7324,24 @@
       <c r="L11" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M11" s="12">
+      <c r="M11" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N11" s="12">
         <v>0.5</v>
       </c>
-      <c r="N11" s="13">
+      <c r="O11" s="13">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="O11" s="14">
+      <c r="P11" s="14">
         <v>0.1</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="Q11" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -7300,7 +7351,7 @@
       <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -7327,21 +7378,24 @@
       <c r="L12" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M12" s="12">
-        <v>1</v>
-      </c>
-      <c r="N12" s="13">
+      <c r="M12" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O12" s="14">
+      <c r="P12" s="14">
         <v>0.5</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="Q12" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="91">
         <v>12</v>
       </c>
@@ -7351,7 +7405,7 @@
       <c r="C13" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E13" s="17" t="s">
@@ -7378,21 +7432,24 @@
       <c r="L13" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M13" s="12">
+      <c r="M13" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N13" s="12">
         <v>4.3</v>
       </c>
-      <c r="N13" s="13">
+      <c r="O13" s="13">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O13" s="14">
-        <v>1</v>
-      </c>
-      <c r="P13" s="15" t="s">
+      <c r="P13" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="91">
         <v>13</v>
       </c>
@@ -7423,27 +7480,30 @@
       <c r="J14" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K14" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L14" s="19" t="s">
+      <c r="L14" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M14" s="20">
-        <v>1</v>
-      </c>
-      <c r="N14" s="10">
+      <c r="M14" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N14" s="20">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O14" s="21">
+      <c r="P14" s="21">
         <v>0.5</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="Q14" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="91">
         <v>14</v>
       </c>
@@ -7453,7 +7513,7 @@
       <c r="C15" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E15" s="17" t="s">
@@ -7480,21 +7540,24 @@
       <c r="L15" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M15" s="22">
+      <c r="M15" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N15" s="22">
         <v>3</v>
       </c>
-      <c r="N15" s="18">
+      <c r="O15" s="18">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O15" s="23">
-        <v>1</v>
-      </c>
-      <c r="P15" s="15" t="s">
+      <c r="P15" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="91">
         <v>15</v>
       </c>
@@ -7504,7 +7567,7 @@
       <c r="C16" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E16" s="17" t="s">
@@ -7531,21 +7594,24 @@
       <c r="L16" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M16" s="22">
+      <c r="M16" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N16" s="22">
         <v>15</v>
       </c>
-      <c r="N16" s="18">
+      <c r="O16" s="18">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O16" s="23">
+      <c r="P16" s="23">
         <v>3</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="Q16" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="91">
         <v>16</v>
       </c>
@@ -7555,7 +7621,7 @@
       <c r="C17" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E17" s="17" t="s">
@@ -7582,21 +7648,24 @@
       <c r="L17" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M17" s="22">
+      <c r="M17" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N17" s="22">
         <v>30</v>
       </c>
-      <c r="N17" s="18">
+      <c r="O17" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O17" s="23">
+      <c r="P17" s="23">
         <v>4</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="Q17" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="91">
         <v>17</v>
       </c>
@@ -7627,27 +7696,30 @@
       <c r="J18" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K18" s="19" t="s">
+      <c r="K18" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L18" s="19" t="s">
+      <c r="L18" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M18" s="20">
+      <c r="M18" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N18" s="20">
         <v>5</v>
       </c>
-      <c r="N18" s="10">
+      <c r="O18" s="10">
         <f t="shared" si="0"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="O18" s="21">
+      <c r="P18" s="21">
         <v>0.3</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="Q18" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="91">
         <v>18</v>
       </c>
@@ -7657,7 +7729,7 @@
       <c r="C19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E19" s="17" t="s">
@@ -7684,21 +7756,24 @@
       <c r="L19" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M19" s="22">
+      <c r="M19" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N19" s="22">
         <v>10</v>
       </c>
-      <c r="N19" s="18">
+      <c r="O19" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O19" s="23">
+      <c r="P19" s="23">
         <v>2</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="Q19" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="91">
         <v>19</v>
       </c>
@@ -7708,7 +7783,7 @@
       <c r="C20" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E20" s="17" t="s">
@@ -7735,21 +7810,24 @@
       <c r="L20" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M20" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N20" s="22">
         <v>21</v>
       </c>
-      <c r="N20" s="18">
+      <c r="O20" s="18">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O20" s="23">
+      <c r="P20" s="23">
         <v>3</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="Q20" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="91">
         <v>20</v>
       </c>
@@ -7759,7 +7837,7 @@
       <c r="C21" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E21" s="17" t="s">
@@ -7786,22 +7864,25 @@
       <c r="L21" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M21" s="22">
+      <c r="M21" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N21" s="22">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="N21" s="18">
+      <c r="O21" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O21" s="23">
+      <c r="P21" s="23">
         <v>4</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="91">
         <v>21</v>
       </c>
@@ -7832,27 +7913,30 @@
       <c r="J22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K22" s="19" t="s">
+      <c r="K22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L22" s="19" t="s">
+      <c r="L22" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M22" s="20">
+      <c r="M22" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N22" s="20">
         <v>5</v>
       </c>
-      <c r="N22" s="10">
+      <c r="O22" s="10">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O22" s="21">
+      <c r="P22" s="21">
         <v>0.5</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="Q22" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="91">
         <v>22</v>
       </c>
@@ -7862,7 +7946,7 @@
       <c r="C23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E23" s="17" t="s">
@@ -7889,21 +7973,24 @@
       <c r="L23" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M23" s="22">
+      <c r="M23" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N23" s="22">
         <v>17</v>
       </c>
-      <c r="N23" s="18">
+      <c r="O23" s="18">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O23" s="23">
-        <v>1</v>
-      </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="91">
         <v>23</v>
       </c>
@@ -7913,7 +8000,7 @@
       <c r="C24" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E24" s="17" t="s">
@@ -7940,21 +8027,24 @@
       <c r="L24" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N24" s="22">
         <v>37</v>
       </c>
-      <c r="N24" s="18">
+      <c r="O24" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O24" s="23">
+      <c r="P24" s="23">
         <v>2</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="Q24" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="91">
         <v>24</v>
       </c>
@@ -7964,7 +8054,7 @@
       <c r="C25" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E25" s="17" t="s">
@@ -7991,22 +8081,25 @@
       <c r="L25" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M25" s="22">
+      <c r="M25" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N25" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N25" s="18">
+      <c r="O25" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O25" s="23">
+      <c r="P25" s="23">
         <v>4</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="Q25" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="91">
         <v>25</v>
       </c>
@@ -8037,27 +8130,30 @@
       <c r="J26" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L26" s="19" t="s">
+      <c r="L26" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M26" s="20">
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
+      <c r="M26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N26" s="20">
+        <v>1</v>
+      </c>
+      <c r="O26" s="10">
         <f t="shared" si="0"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="O26" s="21">
+      <c r="P26" s="21">
         <v>0.2</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="Q26" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A27" s="91">
         <v>26</v>
       </c>
@@ -8067,7 +8163,7 @@
       <c r="C27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E27" s="17" t="s">
@@ -8094,21 +8190,24 @@
       <c r="L27" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M27" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N27" s="22">
         <v>4</v>
       </c>
-      <c r="N27" s="18">
+      <c r="O27" s="18">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O27" s="23">
+      <c r="P27" s="23">
         <v>0.5</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="Q27" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="91">
         <v>27</v>
       </c>
@@ -8118,7 +8217,7 @@
       <c r="C28" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E28" s="17" t="s">
@@ -8145,21 +8244,24 @@
       <c r="L28" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N28" s="22">
         <v>8</v>
       </c>
-      <c r="N28" s="18">
+      <c r="O28" s="18">
         <f t="shared" si="0"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="O28" s="23">
+      <c r="P28" s="23">
         <v>1.5</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="Q28" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="91">
         <v>28</v>
       </c>
@@ -8169,7 +8271,7 @@
       <c r="C29" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E29" s="17" t="s">
@@ -8196,21 +8298,24 @@
       <c r="L29" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M29" s="22">
+      <c r="M29" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N29" s="22">
         <v>12</v>
       </c>
-      <c r="N29" s="18">
+      <c r="O29" s="18">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O29" s="23">
+      <c r="P29" s="23">
         <v>3</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="Q29" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A30" s="91">
         <v>29</v>
       </c>
@@ -8241,27 +8346,30 @@
       <c r="J30" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K30" s="19" t="s">
+      <c r="K30" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L30" s="19" t="s">
+      <c r="L30" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M30" s="20">
-        <v>1</v>
-      </c>
-      <c r="N30" s="10">
-        <f t="shared" ref="N30:N37" si="1">O30/NORMINV(0.95,0,1)</f>
+      <c r="M30" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N30" s="20">
+        <v>1</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" ref="O30:O37" si="1">P30/NORMINV(0.95,0,1)</f>
         <v>0.12159136638235388</v>
       </c>
-      <c r="O30" s="21">
+      <c r="P30" s="21">
         <v>0.2</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="Q30" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A31" s="91">
         <v>30</v>
       </c>
@@ -8271,7 +8379,7 @@
       <c r="C31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -8298,21 +8406,24 @@
       <c r="L31" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M31" s="22">
+      <c r="M31" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N31" s="22">
         <v>4</v>
       </c>
-      <c r="N31" s="18">
+      <c r="O31" s="18">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O31" s="23">
+      <c r="P31" s="23">
         <v>0.5</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="Q31" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A32" s="91">
         <v>31</v>
       </c>
@@ -8322,7 +8433,7 @@
       <c r="C32" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E32" s="17" t="s">
@@ -8349,21 +8460,24 @@
       <c r="L32" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N32" s="22">
         <v>8</v>
       </c>
-      <c r="N32" s="18">
+      <c r="O32" s="18">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="O32" s="23">
+      <c r="P32" s="23">
         <v>1.5</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="Q32" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="91">
         <v>32</v>
       </c>
@@ -8373,7 +8487,7 @@
       <c r="C33" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -8400,21 +8514,24 @@
       <c r="L33" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N33" s="22">
         <v>12</v>
       </c>
-      <c r="N33" s="18">
+      <c r="O33" s="18">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O33" s="23">
+      <c r="P33" s="23">
         <v>3</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="Q33" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="91">
         <v>33</v>
       </c>
@@ -8445,27 +8562,30 @@
       <c r="J34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K34" s="19" t="s">
+      <c r="K34" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L34" s="19" t="s">
+      <c r="L34" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M34" s="20">
-        <v>1</v>
-      </c>
-      <c r="N34" s="10">
+      <c r="M34" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N34" s="20">
+        <v>1</v>
+      </c>
+      <c r="O34" s="10">
         <f t="shared" si="1"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="O34" s="21">
+      <c r="P34" s="21">
         <v>0.2</v>
       </c>
-      <c r="P34" s="15" t="s">
+      <c r="Q34" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A35" s="91">
         <v>34</v>
       </c>
@@ -8475,7 +8595,7 @@
       <c r="C35" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E35" s="17" t="s">
@@ -8502,21 +8622,24 @@
       <c r="L35" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N35" s="22">
         <v>4</v>
       </c>
-      <c r="N35" s="18">
+      <c r="O35" s="18">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O35" s="23">
+      <c r="P35" s="23">
         <v>0.5</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="Q35" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A36" s="91">
         <v>35</v>
       </c>
@@ -8526,7 +8649,7 @@
       <c r="C36" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E36" s="17" t="s">
@@ -8553,21 +8676,24 @@
       <c r="L36" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N36" s="22">
         <v>8</v>
       </c>
-      <c r="N36" s="18">
+      <c r="O36" s="18">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="O36" s="23">
+      <c r="P36" s="23">
         <v>1.5</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="Q36" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="91">
         <v>36</v>
       </c>
@@ -8577,7 +8703,7 @@
       <c r="C37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E37" s="17" t="s">
@@ -8604,21 +8730,24 @@
       <c r="L37" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M37" s="22">
+      <c r="M37" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N37" s="22">
         <v>12</v>
       </c>
-      <c r="N37" s="18">
+      <c r="O37" s="18">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="O37" s="23">
+      <c r="P37" s="23">
         <v>3</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="Q37" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="91">
         <v>37</v>
       </c>
@@ -8649,27 +8778,30 @@
       <c r="J38" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K38" s="19" t="s">
+      <c r="K38" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L38" s="19" t="s">
+      <c r="L38" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M38" s="20">
+      <c r="M38" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N38" s="20">
         <v>3</v>
       </c>
-      <c r="N38" s="10">
+      <c r="O38" s="10">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O38" s="21">
-        <v>1</v>
-      </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="91">
         <v>38</v>
       </c>
@@ -8679,7 +8811,7 @@
       <c r="C39" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E39" s="17" t="s">
@@ -8706,21 +8838,24 @@
       <c r="L39" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M39" s="22">
+      <c r="M39" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N39" s="22">
         <v>20</v>
       </c>
-      <c r="N39" s="18">
+      <c r="O39" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O39" s="23">
+      <c r="P39" s="23">
         <v>2</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="Q39" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="91">
         <v>39</v>
       </c>
@@ -8730,7 +8865,7 @@
       <c r="C40" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -8757,21 +8892,24 @@
       <c r="L40" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N40" s="22">
         <v>60</v>
       </c>
-      <c r="N40" s="18">
+      <c r="O40" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O40" s="23">
+      <c r="P40" s="23">
         <v>4</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="Q40" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="91">
         <v>40</v>
       </c>
@@ -8781,7 +8919,7 @@
       <c r="C41" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E41" s="17" t="s">
@@ -8808,22 +8946,25 @@
       <c r="L41" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M41" s="22">
+      <c r="M41" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N41" s="22">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="N41" s="18">
+      <c r="O41" s="18">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="O41" s="23">
+      <c r="P41" s="23">
         <v>8</v>
       </c>
-      <c r="P41" s="15" t="s">
+      <c r="Q41" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="91">
         <v>41</v>
       </c>
@@ -8854,27 +8995,30 @@
       <c r="J42" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K42" s="19" t="s">
+      <c r="K42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L42" s="19" t="s">
+      <c r="L42" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M42" s="20">
+      <c r="M42" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N42" s="20">
         <v>5</v>
       </c>
-      <c r="N42" s="10">
-        <f t="shared" ref="N42:N61" si="2">O42/NORMINV(0.95,0,1)</f>
+      <c r="O42" s="10">
+        <f t="shared" ref="O42:O61" si="2">P42/NORMINV(0.95,0,1)</f>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O42" s="21">
+      <c r="P42" s="21">
         <v>0.5</v>
       </c>
-      <c r="P42" s="15" t="s">
+      <c r="Q42" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="91">
         <v>42</v>
       </c>
@@ -8884,7 +9028,7 @@
       <c r="C43" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E43" s="17" t="s">
@@ -8911,21 +9055,24 @@
       <c r="L43" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M43" s="22">
+      <c r="M43" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N43" s="22">
         <v>17</v>
       </c>
-      <c r="N43" s="18">
+      <c r="O43" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O43" s="23">
-        <v>1</v>
-      </c>
-      <c r="P43" s="15" t="s">
+      <c r="P43" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="91">
         <v>43</v>
       </c>
@@ -8935,7 +9082,7 @@
       <c r="C44" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E44" s="17" t="s">
@@ -8962,21 +9109,24 @@
       <c r="L44" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N44" s="22">
         <v>37</v>
       </c>
-      <c r="N44" s="18">
+      <c r="O44" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O44" s="23">
+      <c r="P44" s="23">
         <v>2</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="Q44" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="91">
         <v>44</v>
       </c>
@@ -8986,7 +9136,7 @@
       <c r="C45" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E45" s="17" t="s">
@@ -9013,22 +9163,25 @@
       <c r="L45" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M45" s="22">
+      <c r="M45" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N45" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N45" s="18">
+      <c r="O45" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O45" s="23">
+      <c r="P45" s="23">
         <v>4</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="Q45" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="91">
         <v>45</v>
       </c>
@@ -9059,27 +9212,30 @@
       <c r="J46" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K46" s="19" t="s">
+      <c r="K46" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L46" s="19" t="s">
+      <c r="L46" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M46" s="20">
+      <c r="M46" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N46" s="20">
         <v>5</v>
       </c>
-      <c r="N46" s="10">
+      <c r="O46" s="10">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O46" s="21">
+      <c r="P46" s="21">
         <v>0.5</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="Q46" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="91">
         <v>46</v>
       </c>
@@ -9089,7 +9245,7 @@
       <c r="C47" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E47" s="17" t="s">
@@ -9116,21 +9272,24 @@
       <c r="L47" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M47" s="22">
+      <c r="M47" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N47" s="22">
         <v>17</v>
       </c>
-      <c r="N47" s="18">
+      <c r="O47" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O47" s="23">
-        <v>1</v>
-      </c>
-      <c r="P47" s="15" t="s">
+      <c r="P47" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A48" s="91">
         <v>47</v>
       </c>
@@ -9140,7 +9299,7 @@
       <c r="C48" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E48" s="17" t="s">
@@ -9167,21 +9326,24 @@
       <c r="L48" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N48" s="22">
         <v>37</v>
       </c>
-      <c r="N48" s="18">
+      <c r="O48" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O48" s="23">
+      <c r="P48" s="23">
         <v>2</v>
       </c>
-      <c r="P48" s="15" t="s">
+      <c r="Q48" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A49" s="91">
         <v>48</v>
       </c>
@@ -9191,7 +9353,7 @@
       <c r="C49" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E49" s="17" t="s">
@@ -9218,22 +9380,25 @@
       <c r="L49" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N49" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N49" s="18">
+      <c r="O49" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O49" s="23">
+      <c r="P49" s="23">
         <v>4</v>
       </c>
-      <c r="P49" s="15" t="s">
+      <c r="Q49" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A50" s="91">
         <v>49</v>
       </c>
@@ -9264,27 +9429,30 @@
       <c r="J50" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K50" s="19" t="s">
+      <c r="K50" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L50" s="19" t="s">
+      <c r="L50" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M50" s="20">
+      <c r="M50" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N50" s="20">
         <v>5</v>
       </c>
-      <c r="N50" s="10">
+      <c r="O50" s="10">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O50" s="21">
+      <c r="P50" s="21">
         <v>0.5</v>
       </c>
-      <c r="P50" s="15" t="s">
+      <c r="Q50" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A51" s="91">
         <v>50</v>
       </c>
@@ -9294,7 +9462,7 @@
       <c r="C51" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E51" s="17" t="s">
@@ -9321,21 +9489,24 @@
       <c r="L51" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N51" s="22">
         <v>17</v>
       </c>
-      <c r="N51" s="18">
+      <c r="O51" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O51" s="23">
-        <v>1</v>
-      </c>
-      <c r="P51" s="15" t="s">
+      <c r="P51" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A52" s="91">
         <v>51</v>
       </c>
@@ -9345,7 +9516,7 @@
       <c r="C52" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E52" s="17" t="s">
@@ -9372,21 +9543,24 @@
       <c r="L52" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N52" s="22">
         <v>37</v>
       </c>
-      <c r="N52" s="18">
+      <c r="O52" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O52" s="23">
+      <c r="P52" s="23">
         <v>2</v>
       </c>
-      <c r="P52" s="15" t="s">
+      <c r="Q52" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A53" s="91">
         <v>52</v>
       </c>
@@ -9396,7 +9570,7 @@
       <c r="C53" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E53" s="17" t="s">
@@ -9423,22 +9597,25 @@
       <c r="L53" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N53" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N53" s="18">
+      <c r="O53" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O53" s="23">
+      <c r="P53" s="23">
         <v>4</v>
       </c>
-      <c r="P53" s="15" t="s">
+      <c r="Q53" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A54" s="91">
         <v>53</v>
       </c>
@@ -9469,27 +9646,30 @@
       <c r="J54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K54" s="19" t="s">
+      <c r="K54" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="L54" s="19" t="s">
+      <c r="L54" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="M54" s="20">
+      <c r="M54" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="N54" s="20">
         <v>5</v>
       </c>
-      <c r="N54" s="10">
+      <c r="O54" s="10">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="O54" s="21">
+      <c r="P54" s="21">
         <v>0.5</v>
       </c>
-      <c r="P54" s="15" t="s">
+      <c r="Q54" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A55" s="91">
         <v>54</v>
       </c>
@@ -9499,7 +9679,7 @@
       <c r="C55" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="D55" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E55" s="17" t="s">
@@ -9526,21 +9706,24 @@
       <c r="L55" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N55" s="22">
         <v>17</v>
       </c>
-      <c r="N55" s="18">
+      <c r="O55" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O55" s="23">
-        <v>1</v>
-      </c>
-      <c r="P55" s="15" t="s">
+      <c r="P55" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q55" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A56" s="91">
         <v>55</v>
       </c>
@@ -9550,7 +9733,7 @@
       <c r="C56" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="D56" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E56" s="17" t="s">
@@ -9577,21 +9760,24 @@
       <c r="L56" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N56" s="22">
         <v>37</v>
       </c>
-      <c r="N56" s="18">
+      <c r="O56" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O56" s="23">
+      <c r="P56" s="23">
         <v>2</v>
       </c>
-      <c r="P56" s="15" t="s">
+      <c r="Q56" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A57" s="91">
         <v>56</v>
       </c>
@@ -9601,7 +9787,7 @@
       <c r="C57" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="D57" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E57" s="28" t="s">
@@ -9622,28 +9808,31 @@
       <c r="J57" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K57" s="19" t="s">
+      <c r="K57" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L57" s="19" t="s">
+      <c r="L57" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="M57" s="24">
+      <c r="M57" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N57" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N57" s="25">
+      <c r="O57" s="25">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O57" s="26">
+      <c r="P57" s="26">
         <v>4</v>
       </c>
-      <c r="P57" s="15" t="s">
+      <c r="Q57" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A58" s="91">
         <v>57</v>
       </c>
@@ -9653,7 +9842,7 @@
       <c r="C58" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="D58" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E58" s="17" t="s">
@@ -9680,21 +9869,24 @@
       <c r="L58" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N58" s="22">
         <v>5</v>
       </c>
-      <c r="N58" s="18">
+      <c r="O58" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="O58" s="21">
-        <v>1</v>
-      </c>
-      <c r="P58" s="15" t="s">
+      <c r="P58" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A59" s="91">
         <v>58</v>
       </c>
@@ -9704,7 +9896,7 @@
       <c r="C59" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="D59" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E59" s="17" t="s">
@@ -9731,21 +9923,24 @@
       <c r="L59" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N59" s="22">
         <v>20</v>
       </c>
-      <c r="N59" s="18">
+      <c r="O59" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="O59" s="23">
+      <c r="P59" s="23">
         <v>2</v>
       </c>
-      <c r="P59" s="15" t="s">
+      <c r="Q59" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A60" s="91">
         <v>59</v>
       </c>
@@ -9755,7 +9950,7 @@
       <c r="C60" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="D60" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E60" s="17" t="s">
@@ -9782,21 +9977,24 @@
       <c r="L60" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N60" s="22">
         <v>50</v>
       </c>
-      <c r="N60" s="18">
+      <c r="O60" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="O60" s="23">
+      <c r="P60" s="23">
         <v>4</v>
       </c>
-      <c r="P60" s="15" t="s">
+      <c r="Q60" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A61" s="91">
         <v>60</v>
       </c>
@@ -9806,7 +10004,7 @@
       <c r="C61" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D61" s="9" t="s">
+      <c r="D61" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E61" s="28" t="s">
@@ -9827,28 +10025,31 @@
       <c r="J61" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K61" s="19" t="s">
+      <c r="K61" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L61" s="19" t="s">
+      <c r="L61" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="M61" s="24">
+      <c r="M61" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N61" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="N61" s="25">
+      <c r="O61" s="25">
         <f t="shared" si="2"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="O61" s="26">
+      <c r="P61" s="26">
         <v>8</v>
       </c>
-      <c r="P61" s="15" t="s">
+      <c r="Q61" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A62" s="91">
         <v>61</v>
       </c>
@@ -9858,7 +10059,7 @@
       <c r="C62" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="9" t="s">
+      <c r="D62" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E62" s="17" t="s">
@@ -9885,20 +10086,23 @@
       <c r="L62" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M62" s="20">
+      <c r="M62" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N62" s="20">
         <v>5</v>
       </c>
-      <c r="N62" s="10">
+      <c r="O62" s="10">
         <v>0.30397841595588471</v>
       </c>
-      <c r="O62" s="21">
+      <c r="P62" s="21">
         <v>0.5</v>
       </c>
-      <c r="P62" s="15" t="s">
+      <c r="Q62" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A63" s="91">
         <v>62</v>
       </c>
@@ -9908,7 +10112,7 @@
       <c r="C63" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="9" t="s">
+      <c r="D63" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E63" s="17" t="s">
@@ -9935,20 +10139,23 @@
       <c r="L63" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N63" s="22">
         <v>17</v>
       </c>
-      <c r="N63" s="18">
+      <c r="O63" s="18">
         <v>0.60795683191176941</v>
       </c>
-      <c r="O63" s="23">
-        <v>1</v>
-      </c>
-      <c r="P63" s="15" t="s">
+      <c r="P63" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A64" s="91">
         <v>63</v>
       </c>
@@ -9958,7 +10165,7 @@
       <c r="C64" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="9" t="s">
+      <c r="D64" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E64" s="17" t="s">
@@ -9985,20 +10192,23 @@
       <c r="L64" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N64" s="22">
         <v>37</v>
       </c>
-      <c r="N64" s="18">
+      <c r="O64" s="18">
         <v>1.2159136638235388</v>
       </c>
-      <c r="O64" s="23">
+      <c r="P64" s="23">
         <v>2</v>
       </c>
-      <c r="P64" s="15" t="s">
+      <c r="Q64" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A65" s="91">
         <v>64</v>
       </c>
@@ -10008,7 +10218,7 @@
       <c r="C65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="9" t="s">
+      <c r="D65" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E65" s="28" t="s">
@@ -10029,27 +10239,30 @@
       <c r="J65" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K65" s="19" t="s">
+      <c r="K65" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L65" s="19" t="s">
+      <c r="L65" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="M65" s="24">
+      <c r="M65" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N65" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N65" s="29">
+      <c r="O65" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="O65" s="26">
+      <c r="P65" s="26">
         <v>4</v>
       </c>
-      <c r="P65" s="15" t="s">
+      <c r="Q65" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A66" s="91">
         <v>65</v>
       </c>
@@ -10059,7 +10272,7 @@
       <c r="C66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="D66" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E66" s="17" t="s">
@@ -10086,20 +10299,23 @@
       <c r="L66" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M66" s="20">
+      <c r="M66" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N66" s="20">
         <v>5</v>
       </c>
-      <c r="N66" s="10">
+      <c r="O66" s="10">
         <v>0.30397841595588471</v>
       </c>
-      <c r="O66" s="21">
+      <c r="P66" s="21">
         <v>0.5</v>
       </c>
-      <c r="P66" s="15" t="s">
+      <c r="Q66" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A67" s="91">
         <v>66</v>
       </c>
@@ -10109,7 +10325,7 @@
       <c r="C67" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="D67" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E67" s="17" t="s">
@@ -10136,20 +10352,23 @@
       <c r="L67" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N67" s="22">
         <v>17</v>
       </c>
-      <c r="N67" s="18">
+      <c r="O67" s="18">
         <v>0.60795683191176941</v>
       </c>
-      <c r="O67" s="23">
-        <v>1</v>
-      </c>
-      <c r="P67" s="15" t="s">
+      <c r="P67" s="23">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A68" s="91">
         <v>67</v>
       </c>
@@ -10159,7 +10378,7 @@
       <c r="C68" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="17" t="s">
         <v>215</v>
       </c>
       <c r="E68" s="17" t="s">
@@ -10186,20 +10405,23 @@
       <c r="L68" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="N68" s="22">
         <v>37</v>
       </c>
-      <c r="N68" s="18">
+      <c r="O68" s="18">
         <v>1.2159136638235388</v>
       </c>
-      <c r="O68" s="23">
+      <c r="P68" s="23">
         <v>2</v>
       </c>
-      <c r="P68" s="15" t="s">
+      <c r="Q68" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:16" s="16" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A69" s="91">
         <v>68</v>
       </c>
@@ -10209,7 +10431,7 @@
       <c r="C69" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" s="28" t="s">
         <v>215</v>
       </c>
       <c r="E69" s="28" t="s">
@@ -10230,28 +10452,31 @@
       <c r="J69" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K69" s="19" t="s">
+      <c r="K69" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="L69" s="19" t="s">
+      <c r="L69" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="M69" s="24">
+      <c r="M69" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="N69" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="N69" s="29">
+      <c r="O69" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="O69" s="26">
+      <c r="P69" s="26">
         <v>4</v>
       </c>
-      <c r="P69" s="15" t="s">
+      <c r="Q69" s="15" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:P68">
+  <sortState ref="B5:Q68">
     <sortCondition ref="B133:B196"/>
     <sortCondition ref="C133:C196"/>
   </sortState>
@@ -10375,11 +10600,11 @@
       <formula>NOT(ISERROR(SEARCH("NA",F34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B61">
-      <formula1>[0]!ComponentTypeList</formula1>
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6:B61" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>pwtp_400ML.xlsx!ComponentTypeList</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B69">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B62:B69" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>ComponentTypeList</formula1>
     </dataValidation>
   </dataValidations>
@@ -10387,8 +10612,8 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000002000000}">
           <x14:formula1>
             <xm:f>asset_names!$A$2:$A$30</xm:f>
           </x14:formula1>
@@ -10401,8 +10626,8 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFF6565"/>
   </sheetPr>
   <dimension ref="A1:C341"/>
@@ -10411,16 +10636,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="89.5" style="35" customWidth="1"/>
-    <col min="4" max="4" width="44.625" style="7" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="7"/>
+    <col min="4" max="4" width="44.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="26" customHeight="1">
       <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
@@ -10431,7 +10656,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A2" t="s">
         <v>155</v>
       </c>
@@ -10442,7 +10667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A3" t="s">
         <v>155</v>
       </c>
@@ -10453,7 +10678,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -10464,7 +10689,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A5" t="s">
         <v>155</v>
       </c>
@@ -10475,7 +10700,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A6" t="s">
         <v>117</v>
       </c>
@@ -10486,7 +10711,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -10497,7 +10722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A8" t="s">
         <v>117</v>
       </c>
@@ -10508,7 +10733,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A9" t="s">
         <v>117</v>
       </c>
@@ -10519,7 +10744,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -10530,7 +10755,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A11" t="s">
         <v>120</v>
       </c>
@@ -10541,7 +10766,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A12" t="s">
         <v>120</v>
       </c>
@@ -10552,7 +10777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A13" t="s">
         <v>120</v>
       </c>
@@ -10563,7 +10788,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A14" t="s">
         <v>118</v>
       </c>
@@ -10574,7 +10799,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A15" t="s">
         <v>118</v>
       </c>
@@ -10585,7 +10810,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A16" t="s">
         <v>118</v>
       </c>
@@ -10596,7 +10821,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -10607,7 +10832,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -10618,7 +10843,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A19" t="s">
         <v>119</v>
       </c>
@@ -10629,7 +10854,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A20" t="s">
         <v>119</v>
       </c>
@@ -10640,7 +10865,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A21" t="s">
         <v>119</v>
       </c>
@@ -10651,7 +10876,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A22" t="s">
         <v>121</v>
       </c>
@@ -10662,7 +10887,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A23" t="s">
         <v>121</v>
       </c>
@@ -10673,7 +10898,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A24" t="s">
         <v>121</v>
       </c>
@@ -10684,7 +10909,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="25" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A25" t="s">
         <v>121</v>
       </c>
@@ -10695,7 +10920,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="26" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A26" t="s">
         <v>196</v>
       </c>
@@ -10706,7 +10931,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A27" t="s">
         <v>196</v>
       </c>
@@ -10717,7 +10942,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A28" t="s">
         <v>196</v>
       </c>
@@ -10728,7 +10953,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A29" t="s">
         <v>196</v>
       </c>
@@ -10739,7 +10964,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A30" t="s">
         <v>170</v>
       </c>
@@ -10750,7 +10975,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A31" t="s">
         <v>170</v>
       </c>
@@ -10761,7 +10986,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A32" t="s">
         <v>170</v>
       </c>
@@ -10772,7 +10997,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="33" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A33" t="s">
         <v>170</v>
       </c>
@@ -10783,7 +11008,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="34" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A34" t="s">
         <v>101</v>
       </c>
@@ -10794,7 +11019,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="35" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -10805,7 +11030,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="36" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A36" t="s">
         <v>101</v>
       </c>
@@ -10816,7 +11041,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -10827,7 +11052,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A38" t="s">
         <v>102</v>
       </c>
@@ -10838,7 +11063,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A39" t="s">
         <v>102</v>
       </c>
@@ -10849,7 +11074,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A40" t="s">
         <v>102</v>
       </c>
@@ -10860,7 +11085,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -10871,7 +11096,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -10882,7 +11107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -10893,7 +11118,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -10904,7 +11129,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A45" t="s">
         <v>48</v>
       </c>
@@ -10915,7 +11140,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A46" t="s">
         <v>172</v>
       </c>
@@ -10926,7 +11151,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A47" t="s">
         <v>172</v>
       </c>
@@ -10937,7 +11162,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A48" t="s">
         <v>172</v>
       </c>
@@ -10948,7 +11173,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A49" t="s">
         <v>172</v>
       </c>
@@ -10959,7 +11184,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -10970,7 +11195,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -10981,7 +11206,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A52" t="s">
         <v>86</v>
       </c>
@@ -10992,7 +11217,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="53" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -11003,7 +11228,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A54" t="s">
         <v>90</v>
       </c>
@@ -11014,7 +11239,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -11025,7 +11250,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="56" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A56" t="s">
         <v>90</v>
       </c>
@@ -11036,7 +11261,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="57" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A57" t="s">
         <v>90</v>
       </c>
@@ -11047,7 +11272,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A58" t="s">
         <v>78</v>
       </c>
@@ -11058,7 +11283,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="59" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A59" t="s">
         <v>78</v>
       </c>
@@ -11069,7 +11294,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A60" t="s">
         <v>78</v>
       </c>
@@ -11080,7 +11305,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A61" t="s">
         <v>78</v>
       </c>
@@ -11091,7 +11316,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="62" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A62" t="s">
         <v>79</v>
       </c>
@@ -11102,7 +11327,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A63" t="s">
         <v>79</v>
       </c>
@@ -11113,7 +11338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A64" t="s">
         <v>79</v>
       </c>
@@ -11124,7 +11349,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="65" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" s="27" customFormat="1" ht="15" customHeight="1">
       <c r="A65" t="s">
         <v>79</v>
       </c>
@@ -11135,7 +11360,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="66" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A66" t="s">
         <v>80</v>
       </c>
@@ -11146,7 +11371,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="67" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -11157,7 +11382,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="68" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -11168,7 +11393,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -11179,7 +11404,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -11190,7 +11415,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="71" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -11201,7 +11426,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="72" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -11212,7 +11437,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -11223,7 +11448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A74" t="s">
         <v>82</v>
       </c>
@@ -11234,7 +11459,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="75" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A75" t="s">
         <v>82</v>
       </c>
@@ -11245,7 +11470,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="76" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A76" t="s">
         <v>82</v>
       </c>
@@ -11256,7 +11481,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="77" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" s="16" customFormat="1" ht="15" customHeight="1">
       <c r="A77" t="s">
         <v>82</v>
       </c>
@@ -11267,7 +11492,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="16">
       <c r="A78" t="s">
         <v>83</v>
       </c>
@@ -11278,7 +11503,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="16">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -11289,7 +11514,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="16">
       <c r="A80" t="s">
         <v>83</v>
       </c>
@@ -11300,7 +11525,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="16">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -11311,7 +11536,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="16">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -11322,7 +11547,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="16">
       <c r="A83" t="s">
         <v>84</v>
       </c>
@@ -11333,7 +11558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="16">
       <c r="A84" t="s">
         <v>84</v>
       </c>
@@ -11344,7 +11569,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="16">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -11355,7 +11580,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="16">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -11366,7 +11591,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="16">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -11377,7 +11602,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="16">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -11388,7 +11613,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="16">
       <c r="A89" t="s">
         <v>85</v>
       </c>
@@ -11399,7 +11624,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="16">
       <c r="A90" t="s">
         <v>167</v>
       </c>
@@ -11410,7 +11635,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="16">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -11421,7 +11646,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="16">
       <c r="A92" t="s">
         <v>167</v>
       </c>
@@ -11432,7 +11657,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="16">
       <c r="A93" t="s">
         <v>167</v>
       </c>
@@ -11443,7 +11668,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="16">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -11454,7 +11679,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="16">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -11465,7 +11690,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="16">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -11476,7 +11701,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" ht="16">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -11487,7 +11712,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="16">
       <c r="A98" t="s">
         <v>92</v>
       </c>
@@ -11498,7 +11723,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="16">
       <c r="A99" t="s">
         <v>92</v>
       </c>
@@ -11509,7 +11734,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="16">
       <c r="A100" t="s">
         <v>92</v>
       </c>
@@ -11520,7 +11745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="16">
       <c r="A101" t="s">
         <v>92</v>
       </c>
@@ -11531,7 +11756,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="16">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -11542,7 +11767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="16">
       <c r="A103" t="s">
         <v>93</v>
       </c>
@@ -11553,7 +11778,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" ht="16">
       <c r="A104" t="s">
         <v>93</v>
       </c>
@@ -11564,7 +11789,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="16">
       <c r="A105" t="s">
         <v>93</v>
       </c>
@@ -11575,7 +11800,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="16">
       <c r="A106" t="s">
         <v>94</v>
       </c>
@@ -11586,7 +11811,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="16">
       <c r="A107" t="s">
         <v>94</v>
       </c>
@@ -11597,7 +11822,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" ht="16">
       <c r="A108" t="s">
         <v>94</v>
       </c>
@@ -11608,7 +11833,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="16">
       <c r="A109" t="s">
         <v>94</v>
       </c>
@@ -11619,7 +11844,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="16">
       <c r="A110" t="s">
         <v>95</v>
       </c>
@@ -11630,7 +11855,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" ht="16">
       <c r="A111" t="s">
         <v>95</v>
       </c>
@@ -11641,7 +11866,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="16">
       <c r="A112" t="s">
         <v>95</v>
       </c>
@@ -11652,7 +11877,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="16">
       <c r="A113" t="s">
         <v>95</v>
       </c>
@@ -11663,7 +11888,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="16">
       <c r="A114" t="s">
         <v>96</v>
       </c>
@@ -11674,7 +11899,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="16">
       <c r="A115" t="s">
         <v>96</v>
       </c>
@@ -11685,7 +11910,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="16">
       <c r="A116" t="s">
         <v>96</v>
       </c>
@@ -11696,7 +11921,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="16">
       <c r="A117" t="s">
         <v>96</v>
       </c>
@@ -11707,7 +11932,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="16">
       <c r="A118" t="s">
         <v>97</v>
       </c>
@@ -11718,7 +11943,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="16">
       <c r="A119" t="s">
         <v>97</v>
       </c>
@@ -11729,7 +11954,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="16">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -11740,7 +11965,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="16">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -11751,7 +11976,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="16">
       <c r="A122" t="s">
         <v>98</v>
       </c>
@@ -11762,7 +11987,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="16">
       <c r="A123" t="s">
         <v>98</v>
       </c>
@@ -11773,7 +11998,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="16">
       <c r="A124" t="s">
         <v>98</v>
       </c>
@@ -11784,7 +12009,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="16">
       <c r="A125" t="s">
         <v>98</v>
       </c>
@@ -11795,7 +12020,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" ht="16">
       <c r="A126" t="s">
         <v>70</v>
       </c>
@@ -11806,7 +12031,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="16">
       <c r="A127" t="s">
         <v>70</v>
       </c>
@@ -11817,7 +12042,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="16">
       <c r="A128" t="s">
         <v>70</v>
       </c>
@@ -11828,7 +12053,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="16">
       <c r="A129" t="s">
         <v>70</v>
       </c>
@@ -11839,7 +12064,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="16">
       <c r="A130" t="s">
         <v>71</v>
       </c>
@@ -11850,7 +12075,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="16">
       <c r="A131" t="s">
         <v>71</v>
       </c>
@@ -11861,7 +12086,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="16">
       <c r="A132" t="s">
         <v>71</v>
       </c>
@@ -11872,7 +12097,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="16">
       <c r="A133" t="s">
         <v>71</v>
       </c>
@@ -11883,7 +12108,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="16">
       <c r="A134" t="s">
         <v>72</v>
       </c>
@@ -11894,7 +12119,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="16">
       <c r="A135" t="s">
         <v>72</v>
       </c>
@@ -11905,7 +12130,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="16">
       <c r="A136" t="s">
         <v>72</v>
       </c>
@@ -11916,7 +12141,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="16">
       <c r="A137" t="s">
         <v>72</v>
       </c>
@@ -11927,7 +12152,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="16">
       <c r="A138" t="s">
         <v>73</v>
       </c>
@@ -11938,7 +12163,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="16">
       <c r="A139" t="s">
         <v>73</v>
       </c>
@@ -11949,7 +12174,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="16">
       <c r="A140" t="s">
         <v>73</v>
       </c>
@@ -11960,7 +12185,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="16">
       <c r="A141" t="s">
         <v>73</v>
       </c>
@@ -11971,7 +12196,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="16">
       <c r="A142" t="s">
         <v>74</v>
       </c>
@@ -11982,7 +12207,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="16">
       <c r="A143" t="s">
         <v>74</v>
       </c>
@@ -11993,7 +12218,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="16">
       <c r="A144" t="s">
         <v>74</v>
       </c>
@@ -12004,7 +12229,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="16">
       <c r="A145" t="s">
         <v>74</v>
       </c>
@@ -12015,7 +12240,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="16">
       <c r="A146" t="s">
         <v>75</v>
       </c>
@@ -12026,7 +12251,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="16">
       <c r="A147" t="s">
         <v>75</v>
       </c>
@@ -12037,7 +12262,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="16">
       <c r="A148" t="s">
         <v>75</v>
       </c>
@@ -12048,7 +12273,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="16">
       <c r="A149" t="s">
         <v>75</v>
       </c>
@@ -12059,7 +12284,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="16">
       <c r="A150" t="s">
         <v>76</v>
       </c>
@@ -12070,7 +12295,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="16">
       <c r="A151" t="s">
         <v>76</v>
       </c>
@@ -12081,7 +12306,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="16">
       <c r="A152" t="s">
         <v>76</v>
       </c>
@@ -12092,7 +12317,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="16">
       <c r="A153" t="s">
         <v>76</v>
       </c>
@@ -12103,7 +12328,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="16">
       <c r="A154" t="s">
         <v>77</v>
       </c>
@@ -12114,7 +12339,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" ht="16">
       <c r="A155" t="s">
         <v>77</v>
       </c>
@@ -12125,7 +12350,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="16">
       <c r="A156" t="s">
         <v>77</v>
       </c>
@@ -12136,7 +12361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="16">
       <c r="A157" t="s">
         <v>77</v>
       </c>
@@ -12147,7 +12372,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="16">
       <c r="A158" t="s">
         <v>194</v>
       </c>
@@ -12158,7 +12383,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="16">
       <c r="A159" t="s">
         <v>194</v>
       </c>
@@ -12169,7 +12394,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="16">
       <c r="A160" t="s">
         <v>194</v>
       </c>
@@ -12180,7 +12405,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="16">
       <c r="A161" t="s">
         <v>194</v>
       </c>
@@ -12191,7 +12416,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" ht="16">
       <c r="A162" t="s">
         <v>12</v>
       </c>
@@ -12202,7 +12427,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="16">
       <c r="A163" t="s">
         <v>12</v>
       </c>
@@ -12213,7 +12438,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" ht="16">
       <c r="A164" t="s">
         <v>12</v>
       </c>
@@ -12224,7 +12449,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="16">
       <c r="A165" t="s">
         <v>12</v>
       </c>
@@ -12235,7 +12460,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="16">
       <c r="A166" t="s">
         <v>13</v>
       </c>
@@ -12246,7 +12471,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="16">
       <c r="A167" t="s">
         <v>13</v>
       </c>
@@ -12257,7 +12482,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" ht="16">
       <c r="A168" t="s">
         <v>13</v>
       </c>
@@ -12268,7 +12493,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="16">
       <c r="A169" t="s">
         <v>13</v>
       </c>
@@ -12279,7 +12504,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="16">
       <c r="A170" t="s">
         <v>88</v>
       </c>
@@ -12290,7 +12515,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="16">
       <c r="A171" t="s">
         <v>88</v>
       </c>
@@ -12301,7 +12526,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="16">
       <c r="A172" t="s">
         <v>88</v>
       </c>
@@ -12312,7 +12537,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="16">
       <c r="A173" t="s">
         <v>88</v>
       </c>
@@ -12323,7 +12548,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="16">
       <c r="A174" t="s">
         <v>89</v>
       </c>
@@ -12334,7 +12559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="16">
       <c r="A175" t="s">
         <v>89</v>
       </c>
@@ -12345,7 +12570,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="16">
       <c r="A176" t="s">
         <v>89</v>
       </c>
@@ -12356,7 +12581,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="16">
       <c r="A177" t="s">
         <v>89</v>
       </c>
@@ -12367,7 +12592,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="16">
       <c r="A178" t="s">
         <v>87</v>
       </c>
@@ -12378,7 +12603,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="16">
       <c r="A179" t="s">
         <v>87</v>
       </c>
@@ -12389,7 +12614,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="16">
       <c r="A180" t="s">
         <v>87</v>
       </c>
@@ -12400,7 +12625,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" ht="16">
       <c r="A181" t="s">
         <v>87</v>
       </c>
@@ -12411,7 +12636,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="16">
       <c r="A182" t="s">
         <v>143</v>
       </c>
@@ -12422,7 +12647,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="16">
       <c r="A183" t="s">
         <v>143</v>
       </c>
@@ -12433,7 +12658,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="16">
       <c r="A184" t="s">
         <v>143</v>
       </c>
@@ -12444,7 +12669,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="16">
       <c r="A185" t="s">
         <v>143</v>
       </c>
@@ -12455,7 +12680,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="186" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" ht="16">
       <c r="A186" t="s">
         <v>146</v>
       </c>
@@ -12466,7 +12691,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="16">
       <c r="A187" t="s">
         <v>146</v>
       </c>
@@ -12477,7 +12702,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="16">
       <c r="A188" t="s">
         <v>146</v>
       </c>
@@ -12488,7 +12713,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="16">
       <c r="A189" t="s">
         <v>146</v>
       </c>
@@ -12499,7 +12724,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="16">
       <c r="A190" t="s">
         <v>149</v>
       </c>
@@ -12510,7 +12735,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="16">
       <c r="A191" t="s">
         <v>149</v>
       </c>
@@ -12521,7 +12746,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="16">
       <c r="A192" t="s">
         <v>149</v>
       </c>
@@ -12532,7 +12757,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="16">
       <c r="A193" t="s">
         <v>149</v>
       </c>
@@ -12543,7 +12768,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="194" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" ht="16">
       <c r="A194" t="s">
         <v>144</v>
       </c>
@@ -12554,7 +12779,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="16">
       <c r="A195" t="s">
         <v>144</v>
       </c>
@@ -12565,7 +12790,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="16">
       <c r="A196" t="s">
         <v>144</v>
       </c>
@@ -12576,7 +12801,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="16">
       <c r="A197" t="s">
         <v>144</v>
       </c>
@@ -12587,7 +12812,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="16">
       <c r="A198" t="s">
         <v>145</v>
       </c>
@@ -12598,7 +12823,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="16">
       <c r="A199" t="s">
         <v>145</v>
       </c>
@@ -12609,7 +12834,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="16">
       <c r="A200" t="s">
         <v>145</v>
       </c>
@@ -12620,7 +12845,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="16">
       <c r="A201" t="s">
         <v>145</v>
       </c>
@@ -12631,7 +12856,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="16">
       <c r="A202" t="s">
         <v>124</v>
       </c>
@@ -12642,7 +12867,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="16">
       <c r="A203" t="s">
         <v>124</v>
       </c>
@@ -12653,7 +12878,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="16">
       <c r="A204" t="s">
         <v>124</v>
       </c>
@@ -12664,7 +12889,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="16">
       <c r="A205" t="s">
         <v>124</v>
       </c>
@@ -12675,7 +12900,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="16">
       <c r="A206" t="s">
         <v>125</v>
       </c>
@@ -12686,7 +12911,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="16">
       <c r="A207" t="s">
         <v>125</v>
       </c>
@@ -12697,7 +12922,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="16">
       <c r="A208" t="s">
         <v>125</v>
       </c>
@@ -12708,7 +12933,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="16">
       <c r="A209" t="s">
         <v>125</v>
       </c>
@@ -12719,7 +12944,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="16">
       <c r="A210" t="s">
         <v>126</v>
       </c>
@@ -12730,7 +12955,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="16">
       <c r="A211" t="s">
         <v>126</v>
       </c>
@@ -12741,7 +12966,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="16">
       <c r="A212" t="s">
         <v>126</v>
       </c>
@@ -12752,7 +12977,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="16">
       <c r="A213" t="s">
         <v>126</v>
       </c>
@@ -12763,7 +12988,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="16">
       <c r="A214" t="s">
         <v>127</v>
       </c>
@@ -12774,7 +12999,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="16">
       <c r="A215" t="s">
         <v>127</v>
       </c>
@@ -12785,7 +13010,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="16">
       <c r="A216" t="s">
         <v>127</v>
       </c>
@@ -12796,7 +13021,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="16">
       <c r="A217" t="s">
         <v>127</v>
       </c>
@@ -12807,7 +13032,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="16">
       <c r="A218" t="s">
         <v>128</v>
       </c>
@@ -12818,7 +13043,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="16">
       <c r="A219" t="s">
         <v>128</v>
       </c>
@@ -12829,7 +13054,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="16">
       <c r="A220" t="s">
         <v>128</v>
       </c>
@@ -12840,7 +13065,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="16">
       <c r="A221" t="s">
         <v>128</v>
       </c>
@@ -12851,7 +13076,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="16">
       <c r="A222" t="s">
         <v>129</v>
       </c>
@@ -12862,7 +13087,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="223" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" ht="16">
       <c r="A223" t="s">
         <v>129</v>
       </c>
@@ -12873,7 +13098,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="16">
       <c r="A224" t="s">
         <v>129</v>
       </c>
@@ -12884,7 +13109,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="16">
       <c r="A225" t="s">
         <v>129</v>
       </c>
@@ -12895,7 +13120,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="16">
       <c r="A226" t="s">
         <v>130</v>
       </c>
@@ -12906,7 +13131,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="16">
       <c r="A227" t="s">
         <v>130</v>
       </c>
@@ -12917,7 +13142,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="16">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -12928,7 +13153,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="16">
       <c r="A229" t="s">
         <v>130</v>
       </c>
@@ -12939,7 +13164,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="230" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" ht="16">
       <c r="A230" t="s">
         <v>131</v>
       </c>
@@ -12950,7 +13175,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="16">
       <c r="A231" t="s">
         <v>131</v>
       </c>
@@ -12961,7 +13186,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="16">
       <c r="A232" t="s">
         <v>131</v>
       </c>
@@ -12972,7 +13197,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="16">
       <c r="A233" t="s">
         <v>131</v>
       </c>
@@ -12983,7 +13208,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="16">
       <c r="A234" t="s">
         <v>134</v>
       </c>
@@ -12994,7 +13219,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="16">
       <c r="A235" t="s">
         <v>134</v>
       </c>
@@ -13005,7 +13230,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="16">
       <c r="A236" t="s">
         <v>134</v>
       </c>
@@ -13016,7 +13241,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="16">
       <c r="A237" t="s">
         <v>134</v>
       </c>
@@ -13027,7 +13252,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="16">
       <c r="A238" t="s">
         <v>135</v>
       </c>
@@ -13038,7 +13263,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="16">
       <c r="A239" t="s">
         <v>135</v>
       </c>
@@ -13049,7 +13274,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="16">
       <c r="A240" t="s">
         <v>135</v>
       </c>
@@ -13060,7 +13285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="16">
       <c r="A241" t="s">
         <v>135</v>
       </c>
@@ -13071,7 +13296,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="16">
       <c r="A242" t="s">
         <v>136</v>
       </c>
@@ -13082,7 +13307,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="243" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" ht="16">
       <c r="A243" t="s">
         <v>136</v>
       </c>
@@ -13093,7 +13318,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="16">
       <c r="A244" t="s">
         <v>136</v>
       </c>
@@ -13104,7 +13329,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="16">
       <c r="A245" t="s">
         <v>136</v>
       </c>
@@ -13115,7 +13340,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="16">
       <c r="A246" t="s">
         <v>137</v>
       </c>
@@ -13126,7 +13351,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="16">
       <c r="A247" t="s">
         <v>137</v>
       </c>
@@ -13137,7 +13362,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="16">
       <c r="A248" t="s">
         <v>137</v>
       </c>
@@ -13148,7 +13373,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="249" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" ht="16">
       <c r="A249" t="s">
         <v>137</v>
       </c>
@@ -13159,7 +13384,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="16">
       <c r="A250" t="s">
         <v>138</v>
       </c>
@@ -13170,7 +13395,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="16">
       <c r="A251" t="s">
         <v>138</v>
       </c>
@@ -13181,7 +13406,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="16">
       <c r="A252" t="s">
         <v>138</v>
       </c>
@@ -13192,7 +13417,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="16">
       <c r="A253" t="s">
         <v>138</v>
       </c>
@@ -13203,7 +13428,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="16">
       <c r="A254" t="s">
         <v>139</v>
       </c>
@@ -13214,7 +13439,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="16">
       <c r="A255" t="s">
         <v>139</v>
       </c>
@@ -13225,7 +13450,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="16">
       <c r="A256" t="s">
         <v>139</v>
       </c>
@@ -13236,7 +13461,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="16">
       <c r="A257" t="s">
         <v>139</v>
       </c>
@@ -13247,7 +13472,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" ht="16">
       <c r="A258" t="s">
         <v>140</v>
       </c>
@@ -13258,7 +13483,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" ht="16">
       <c r="A259" t="s">
         <v>140</v>
       </c>
@@ -13269,7 +13494,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" ht="16">
       <c r="A260" t="s">
         <v>140</v>
       </c>
@@ -13280,7 +13505,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" ht="16">
       <c r="A261" t="s">
         <v>140</v>
       </c>
@@ -13291,7 +13516,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" ht="16">
       <c r="A262" t="s">
         <v>141</v>
       </c>
@@ -13302,7 +13527,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="263" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" ht="16">
       <c r="A263" t="s">
         <v>141</v>
       </c>
@@ -13313,7 +13538,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="264" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" ht="16">
       <c r="A264" t="s">
         <v>141</v>
       </c>
@@ -13324,7 +13549,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" ht="16">
       <c r="A265" t="s">
         <v>141</v>
       </c>
@@ -13335,7 +13560,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="266" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" ht="16">
       <c r="A266" t="s">
         <v>142</v>
       </c>
@@ -13346,7 +13571,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" ht="16">
       <c r="A267" t="s">
         <v>142</v>
       </c>
@@ -13357,7 +13582,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="268" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" ht="16">
       <c r="A268" t="s">
         <v>142</v>
       </c>
@@ -13368,7 +13593,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" ht="16">
       <c r="A269" t="s">
         <v>142</v>
       </c>
@@ -13379,7 +13604,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" ht="16">
       <c r="A270" t="s">
         <v>150</v>
       </c>
@@ -13390,7 +13615,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" ht="16">
       <c r="A271" t="s">
         <v>150</v>
       </c>
@@ -13401,7 +13626,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" ht="16">
       <c r="A272" t="s">
         <v>150</v>
       </c>
@@ -13412,7 +13637,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="273" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" ht="16">
       <c r="A273" t="s">
         <v>150</v>
       </c>
@@ -13423,7 +13648,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="274" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" ht="16">
       <c r="A274" t="s">
         <v>174</v>
       </c>
@@ -13434,7 +13659,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="275" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" ht="16">
       <c r="A275" t="s">
         <v>174</v>
       </c>
@@ -13445,7 +13670,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="276" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" ht="16">
       <c r="A276" t="s">
         <v>174</v>
       </c>
@@ -13456,7 +13681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="277" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" ht="16">
       <c r="A277" t="s">
         <v>174</v>
       </c>
@@ -13467,7 +13692,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="278" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" ht="16">
       <c r="A278" t="s">
         <v>132</v>
       </c>
@@ -13478,7 +13703,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="279" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" ht="16">
       <c r="A279" t="s">
         <v>132</v>
       </c>
@@ -13489,7 +13714,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="280" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" ht="16">
       <c r="A280" t="s">
         <v>132</v>
       </c>
@@ -13500,7 +13725,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="281" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" ht="16">
       <c r="A281" t="s">
         <v>132</v>
       </c>
@@ -13511,7 +13736,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="282" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" ht="16">
       <c r="A282" t="s">
         <v>133</v>
       </c>
@@ -13522,7 +13747,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="283" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" ht="16">
       <c r="A283" t="s">
         <v>133</v>
       </c>
@@ -13533,7 +13758,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="284" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" ht="16">
       <c r="A284" t="s">
         <v>133</v>
       </c>
@@ -13544,7 +13769,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="285" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" ht="16">
       <c r="A285" t="s">
         <v>133</v>
       </c>
@@ -13555,7 +13780,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="286" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" ht="16">
       <c r="A286" t="s">
         <v>171</v>
       </c>
@@ -13566,7 +13791,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="287" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" ht="16">
       <c r="A287" t="s">
         <v>171</v>
       </c>
@@ -13577,7 +13802,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="288" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" ht="16">
       <c r="A288" t="s">
         <v>171</v>
       </c>
@@ -13588,7 +13813,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="289" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" ht="16">
       <c r="A289" t="s">
         <v>171</v>
       </c>
@@ -13599,7 +13824,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="290" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" ht="16">
       <c r="A290" t="s">
         <v>114</v>
       </c>
@@ -13610,7 +13835,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="291" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" ht="16">
       <c r="A291" t="s">
         <v>114</v>
       </c>
@@ -13621,7 +13846,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="292" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" ht="16">
       <c r="A292" t="s">
         <v>114</v>
       </c>
@@ -13632,7 +13857,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="293" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" ht="16">
       <c r="A293" t="s">
         <v>114</v>
       </c>
@@ -13643,7 +13868,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="294" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" ht="16">
       <c r="A294" t="s">
         <v>115</v>
       </c>
@@ -13654,7 +13879,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="295" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" ht="16">
       <c r="A295" t="s">
         <v>115</v>
       </c>
@@ -13665,7 +13890,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="296" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" ht="16">
       <c r="A296" t="s">
         <v>115</v>
       </c>
@@ -13676,7 +13901,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="297" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" ht="16">
       <c r="A297" t="s">
         <v>115</v>
       </c>
@@ -13687,7 +13912,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" ht="16">
       <c r="A298" t="s">
         <v>147</v>
       </c>
@@ -13698,7 +13923,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="299" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" ht="16">
       <c r="A299" t="s">
         <v>147</v>
       </c>
@@ -13709,7 +13934,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="300" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" ht="16">
       <c r="A300" t="s">
         <v>147</v>
       </c>
@@ -13720,7 +13945,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="301" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" ht="16">
       <c r="A301" t="s">
         <v>147</v>
       </c>
@@ -13731,7 +13956,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="302" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" ht="16">
       <c r="A302" t="s">
         <v>148</v>
       </c>
@@ -13742,7 +13967,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="303" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" ht="16">
       <c r="A303" t="s">
         <v>148</v>
       </c>
@@ -13753,7 +13978,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="304" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" ht="16">
       <c r="A304" t="s">
         <v>148</v>
       </c>
@@ -13764,7 +13989,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="305" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" ht="16">
       <c r="A305" t="s">
         <v>148</v>
       </c>
@@ -13775,7 +14000,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="306" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" ht="16">
       <c r="A306" t="s">
         <v>100</v>
       </c>
@@ -13786,7 +14011,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="307" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" ht="16">
       <c r="A307" t="s">
         <v>100</v>
       </c>
@@ -13797,7 +14022,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" ht="16">
       <c r="A308" t="s">
         <v>100</v>
       </c>
@@ -13808,7 +14033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="309" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" ht="16">
       <c r="A309" t="s">
         <v>100</v>
       </c>
@@ -13819,7 +14044,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="310" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" ht="16">
       <c r="A310" t="s">
         <v>103</v>
       </c>
@@ -13830,7 +14055,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="311" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" ht="16">
       <c r="A311" t="s">
         <v>103</v>
       </c>
@@ -13841,7 +14066,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="312" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" ht="16">
       <c r="A312" t="s">
         <v>103</v>
       </c>
@@ -13852,7 +14077,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="313" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" ht="16">
       <c r="A313" t="s">
         <v>103</v>
       </c>
@@ -13863,7 +14088,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="314" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" ht="16">
       <c r="A314" t="s">
         <v>104</v>
       </c>
@@ -13874,7 +14099,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="315" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" ht="16">
       <c r="A315" t="s">
         <v>104</v>
       </c>
@@ -13885,7 +14110,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="316" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" ht="16">
       <c r="A316" t="s">
         <v>104</v>
       </c>
@@ -13896,7 +14121,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="317" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" ht="16">
       <c r="A317" t="s">
         <v>104</v>
       </c>
@@ -13907,7 +14132,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="318" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" ht="16">
       <c r="A318" t="s">
         <v>105</v>
       </c>
@@ -13918,7 +14143,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="319" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" ht="16">
       <c r="A319" t="s">
         <v>105</v>
       </c>
@@ -13929,7 +14154,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="320" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" ht="16">
       <c r="A320" t="s">
         <v>105</v>
       </c>
@@ -13940,7 +14165,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="321" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" ht="16">
       <c r="A321" t="s">
         <v>105</v>
       </c>
@@ -13951,7 +14176,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="322" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" ht="16">
       <c r="A322" t="s">
         <v>106</v>
       </c>
@@ -13962,7 +14187,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="323" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" ht="16">
       <c r="A323" t="s">
         <v>106</v>
       </c>
@@ -13973,7 +14198,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="324" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" ht="16">
       <c r="A324" t="s">
         <v>106</v>
       </c>
@@ -13984,7 +14209,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="325" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" ht="16">
       <c r="A325" t="s">
         <v>106</v>
       </c>
@@ -13995,7 +14220,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="326" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" ht="16">
       <c r="A326" t="s">
         <v>107</v>
       </c>
@@ -14006,7 +14231,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="327" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" ht="16">
       <c r="A327" t="s">
         <v>107</v>
       </c>
@@ -14017,7 +14242,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="328" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" ht="16">
       <c r="A328" t="s">
         <v>107</v>
       </c>
@@ -14028,7 +14253,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="329" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" ht="16">
       <c r="A329" t="s">
         <v>107</v>
       </c>
@@ -14039,7 +14264,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="330" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" ht="16">
       <c r="A330" t="s">
         <v>108</v>
       </c>
@@ -14050,7 +14275,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="331" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" ht="16">
       <c r="A331" t="s">
         <v>108</v>
       </c>
@@ -14061,7 +14286,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="332" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" ht="16">
       <c r="A332" t="s">
         <v>108</v>
       </c>
@@ -14072,7 +14297,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="333" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" ht="16">
       <c r="A333" t="s">
         <v>108</v>
       </c>
@@ -14083,7 +14308,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="334" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" ht="16">
       <c r="A334" t="s">
         <v>165</v>
       </c>
@@ -14094,7 +14319,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="335" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" ht="16">
       <c r="A335" t="s">
         <v>165</v>
       </c>
@@ -14105,7 +14330,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="336" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" ht="16">
       <c r="A336" t="s">
         <v>165</v>
       </c>
@@ -14116,7 +14341,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="337" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" ht="16">
       <c r="A337" t="s">
         <v>165</v>
       </c>
@@ -14127,7 +14352,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="338" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" ht="16">
       <c r="A338" t="s">
         <v>166</v>
       </c>
@@ -14138,7 +14363,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="339" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" ht="16">
       <c r="A339" t="s">
         <v>166</v>
       </c>
@@ -14149,7 +14374,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="340" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" ht="16">
       <c r="A340" t="s">
         <v>166</v>
       </c>
@@ -14160,7 +14385,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="341" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" ht="16">
       <c r="A341" t="s">
         <v>166</v>
       </c>
@@ -14178,21 +14403,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="40" customWidth="1"/>
-    <col min="2" max="2" width="33.375" style="40" customWidth="1"/>
+    <col min="1" max="1" width="34.83203125" style="40" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="40" customWidth="1"/>
     <col min="3" max="16384" width="11" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A1" s="38" t="s">
         <v>49</v>
       </c>
@@ -14200,155 +14425,155 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A3" s="39" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A4" s="39" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A5" s="39" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A7" s="39" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A8" s="39" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A9" s="39" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A11" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A12" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A13" s="39" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A14" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A15" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A16" s="39" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A17" s="39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A18" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A19" s="39" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A20" s="39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A21" s="39" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A22" s="39" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A23" s="39" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A24" s="39" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A25" s="39" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="26" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A26" s="39" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A27" s="39" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A28" s="39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A29" s="39" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="30" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1">
       <c r="A30" s="39" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:1" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="39" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1"/>
+    <row r="32" spans="1:1" s="39" customFormat="1" ht="22" customHeight="1"/>
+    <row r="33" s="39" customFormat="1" ht="22" customHeight="1"/>
+    <row r="34" s="39" customFormat="1" ht="22" customHeight="1"/>
   </sheetData>
   <sortState ref="A2:A22">
     <sortCondition ref="A1"/>
@@ -14359,19 +14584,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>99</v>
       </c>

--- a/tests/models/potable_water_treatment_plant/pwtp_400ML.xlsx
+++ b/tests/models/potable_water_treatment_plant/pwtp_400ML.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufr/code/sifra/tests/models/potable_water_treatment_plant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{035298CD-8AD1-564D-A2B4-4B99FA41CD47}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8524BB88-895E-114A-8041-369EC1435F23}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16900" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2388" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2389" uniqueCount="223">
   <si>
     <t>component_type</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>Normal</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1553,7 +1556,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1823,6 +1826,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6722,10 +6731,10 @@
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="B47" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="G69" sqref="G2:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13"/>
@@ -6734,20 +6743,20 @@
     <col min="2" max="2" width="28.5" style="5" customWidth="1"/>
     <col min="3" max="4" width="13.6640625" style="5" customWidth="1"/>
     <col min="5" max="5" width="14.1640625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="14.1640625" style="6" customWidth="1"/>
-    <col min="8" max="10" width="11.1640625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="12" style="6" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" style="6" customWidth="1"/>
-    <col min="13" max="13" width="15.5" style="6" customWidth="1"/>
-    <col min="14" max="14" width="12.6640625" style="6" customWidth="1"/>
-    <col min="15" max="15" width="12.1640625" style="6" customWidth="1"/>
-    <col min="16" max="16" width="19.1640625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="65.6640625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="44.6640625" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="10.83203125" style="7"/>
+    <col min="6" max="8" width="14.1640625" style="94" customWidth="1"/>
+    <col min="9" max="11" width="11.1640625" style="6" customWidth="1"/>
+    <col min="12" max="12" width="12" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" style="6" customWidth="1"/>
+    <col min="14" max="14" width="15.5" style="6" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="12.1640625" style="6" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="6" customWidth="1"/>
+    <col min="18" max="18" width="65.6640625" style="5" customWidth="1"/>
+    <col min="19" max="19" width="44.6640625" style="7" customWidth="1"/>
+    <col min="20" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1" ht="26" customHeight="1">
+    <row r="1" spans="1:18" s="8" customFormat="1" ht="26" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>213</v>
       </c>
@@ -6763,44 +6772,47 @@
       <c r="E1" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="31" t="s">
+      <c r="F1" s="93" t="s">
         <v>211</v>
       </c>
-      <c r="G1" s="31" t="s">
+      <c r="G1" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="H1" s="93" t="s">
         <v>212</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="I1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="33" t="s">
+      <c r="J1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="K1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="32" t="s">
+      <c r="L1" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="L1" s="32" t="s">
+      <c r="M1" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="48" t="s">
+      <c r="N1" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="N1" s="48" t="s">
+      <c r="O1" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="P1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="Q1" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="34" t="s">
+      <c r="R1" s="34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="2" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A2" s="91">
         <v>1</v>
       </c>
@@ -6820,41 +6832,44 @@
         <v>0.8</v>
       </c>
       <c r="G2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
         <v>0.6</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>0.2</v>
       </c>
-      <c r="I2" s="45">
+      <c r="J2" s="45">
         <v>0.95</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="K2" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L2" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M2" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N2" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N2" s="12">
+      <c r="O2" s="12">
         <v>0.2</v>
       </c>
-      <c r="O2" s="13">
-        <f t="shared" ref="O2:O41" si="0">P2/NORMINV(0.95,0,1)</f>
+      <c r="P2" s="13">
+        <f t="shared" ref="P2:P41" si="0">Q2/NORMINV(0.95,0,1)</f>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P2" s="14">
+      <c r="Q2" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="R2" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="3" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A3" s="91">
         <v>2</v>
       </c>
@@ -6874,41 +6889,44 @@
         <v>1</v>
       </c>
       <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
         <v>0.8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="I3" s="2">
         <v>0.7</v>
       </c>
-      <c r="I3" s="46">
+      <c r="J3" s="46">
         <v>0.75</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="K3" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K3" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L3" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M3" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N3" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N3" s="12">
+      <c r="O3" s="12">
         <v>0.5</v>
       </c>
-      <c r="O3" s="13">
+      <c r="P3" s="13">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P3" s="14">
+      <c r="Q3" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q3" s="15" t="s">
+      <c r="R3" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="4" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A4" s="91">
         <v>3</v>
       </c>
@@ -6928,41 +6946,44 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G4" s="41">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H4" s="41">
         <v>0.85</v>
       </c>
-      <c r="I4" s="46">
+      <c r="I4" s="41">
+        <v>0.85</v>
+      </c>
+      <c r="J4" s="46">
         <v>0.3</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="K4" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K4" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L4" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N4" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N4" s="12">
-        <v>1</v>
-      </c>
-      <c r="O4" s="13">
+      <c r="O4" s="12">
+        <v>1</v>
+      </c>
+      <c r="P4" s="13">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P4" s="14">
+      <c r="Q4" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="5" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A5" s="91">
         <v>4</v>
       </c>
@@ -6982,41 +7003,44 @@
         <v>1.4</v>
       </c>
       <c r="G5" s="42">
+        <v>0</v>
+      </c>
+      <c r="H5" s="42">
         <v>0.8</v>
       </c>
-      <c r="H5" s="42">
-        <v>1</v>
-      </c>
-      <c r="I5" s="46">
+      <c r="I5" s="42">
+        <v>1</v>
+      </c>
+      <c r="J5" s="46">
         <v>0</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="K5" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K5" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L5" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M5" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N5" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N5" s="12">
+      <c r="O5" s="12">
         <v>4.3</v>
       </c>
-      <c r="O5" s="13">
+      <c r="P5" s="13">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P5" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="14">
+        <v>1</v>
+      </c>
+      <c r="R5" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="6" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A6" s="91">
         <v>5</v>
       </c>
@@ -7036,41 +7060,44 @@
         <v>0.15</v>
       </c>
       <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="4">
         <v>0.4</v>
       </c>
-      <c r="H6" s="43">
+      <c r="I6" s="43">
         <v>0.2</v>
       </c>
-      <c r="I6" s="45">
+      <c r="J6" s="45">
         <v>0.95</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L6" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M6" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N6" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N6" s="20">
+      <c r="O6" s="20">
         <v>3</v>
       </c>
-      <c r="O6" s="10">
+      <c r="P6" s="10">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P6" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="15" t="s">
+      <c r="Q6" s="21">
+        <v>1</v>
+      </c>
+      <c r="R6" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="7" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A7" s="91">
         <v>6</v>
       </c>
@@ -7090,41 +7117,44 @@
         <v>0.3</v>
       </c>
       <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
         <v>0.4</v>
       </c>
-      <c r="H7" s="43">
+      <c r="I7" s="43">
         <v>0.4</v>
       </c>
-      <c r="I7" s="46">
+      <c r="J7" s="46">
         <v>0.75</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K7" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L7" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M7" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N7" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N7" s="22">
+      <c r="O7" s="22">
         <v>20</v>
       </c>
-      <c r="O7" s="18">
+      <c r="P7" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P7" s="23">
+      <c r="Q7" s="23">
         <v>2</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="8" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A8" s="91">
         <v>7</v>
       </c>
@@ -7144,41 +7174,44 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="43">
+        <v>0</v>
+      </c>
+      <c r="H8" s="43">
         <v>0.4</v>
       </c>
-      <c r="H8" s="43">
+      <c r="I8" s="43">
         <v>0.75</v>
       </c>
-      <c r="I8" s="46">
+      <c r="J8" s="46">
         <v>0.3</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L8" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M8" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N8" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N8" s="22">
+      <c r="O8" s="22">
         <v>60</v>
       </c>
-      <c r="O8" s="18">
+      <c r="P8" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P8" s="23">
+      <c r="Q8" s="23">
         <v>4</v>
       </c>
-      <c r="Q8" s="15" t="s">
+      <c r="R8" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="9" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A9" s="91">
         <v>8</v>
       </c>
@@ -7198,42 +7231,45 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G9" s="43">
+        <v>0</v>
+      </c>
+      <c r="H9" s="43">
         <v>0.4</v>
       </c>
-      <c r="H9" s="43">
+      <c r="I9" s="43">
         <v>0.9</v>
       </c>
-      <c r="I9" s="46">
+      <c r="J9" s="46">
         <v>0</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K9" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L9" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M9" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N9" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N9" s="24">
+      <c r="O9" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="O9" s="25">
+      <c r="P9" s="25">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="P9" s="26">
+      <c r="Q9" s="26">
         <v>8</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="R9" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="27" customFormat="1" ht="14" customHeight="1">
+    <row r="10" spans="1:18" s="27" customFormat="1" ht="14" customHeight="1">
       <c r="A10" s="91">
         <v>9</v>
       </c>
@@ -7253,41 +7289,44 @@
         <v>0.36</v>
       </c>
       <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.5</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <v>0.2</v>
       </c>
-      <c r="I10" s="45">
+      <c r="J10" s="45">
         <v>0.95</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="K10" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K10" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L10" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M10" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N10" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N10" s="12">
+      <c r="O10" s="12">
         <v>0.2</v>
       </c>
-      <c r="O10" s="13">
+      <c r="P10" s="13">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P10" s="14">
+      <c r="Q10" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q10" s="15" t="s">
+      <c r="R10" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="11" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A11" s="91">
         <v>10</v>
       </c>
@@ -7307,41 +7346,44 @@
         <v>0.6</v>
       </c>
       <c r="G11" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H11" s="2">
         <v>0.5</v>
       </c>
-      <c r="I11" s="46">
+      <c r="I11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J11" s="46">
         <v>0.75</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="K11" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K11" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L11" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M11" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N11" s="12">
+      <c r="O11" s="12">
         <v>0.5</v>
       </c>
-      <c r="O11" s="13">
+      <c r="P11" s="13">
         <f t="shared" si="0"/>
         <v>6.0795683191176939E-2</v>
       </c>
-      <c r="P11" s="14">
+      <c r="Q11" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q11" s="15" t="s">
+      <c r="R11" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="12" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A12" s="91">
         <v>11</v>
       </c>
@@ -7361,41 +7403,44 @@
         <v>1.2</v>
       </c>
       <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
         <v>0.6</v>
       </c>
-      <c r="H12" s="2">
+      <c r="I12" s="2">
         <v>0.8</v>
       </c>
-      <c r="I12" s="46">
+      <c r="J12" s="46">
         <v>0.3</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="K12" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K12" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L12" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N12" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N12" s="12">
-        <v>1</v>
-      </c>
-      <c r="O12" s="13">
+      <c r="O12" s="12">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P12" s="14">
+      <c r="Q12" s="14">
         <v>0.5</v>
       </c>
-      <c r="Q12" s="15" t="s">
+      <c r="R12" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="13" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A13" s="91">
         <v>12</v>
       </c>
@@ -7415,41 +7460,44 @@
         <v>1.5</v>
       </c>
       <c r="G13" s="42">
+        <v>0</v>
+      </c>
+      <c r="H13" s="42">
         <v>0.6</v>
       </c>
-      <c r="H13" s="42">
-        <v>1</v>
-      </c>
-      <c r="I13" s="46">
+      <c r="I13" s="42">
+        <v>1</v>
+      </c>
+      <c r="J13" s="46">
         <v>0</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="K13" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L13" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M13" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N13" s="12">
+      <c r="O13" s="12">
         <v>4.3</v>
       </c>
-      <c r="O13" s="13">
+      <c r="P13" s="13">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P13" s="14">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="15" t="s">
+      <c r="Q13" s="14">
+        <v>1</v>
+      </c>
+      <c r="R13" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="14" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A14" s="91">
         <v>13</v>
       </c>
@@ -7469,41 +7517,44 @@
         <v>0.65</v>
       </c>
       <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.6</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <v>0.15</v>
       </c>
-      <c r="I14" s="45">
+      <c r="J14" s="45">
         <v>0.95</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L14" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M14" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N14" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N14" s="20">
-        <v>1</v>
-      </c>
-      <c r="O14" s="10">
+      <c r="O14" s="20">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P14" s="21">
+      <c r="Q14" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q14" s="15" t="s">
+      <c r="R14" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="15" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A15" s="91">
         <v>14</v>
       </c>
@@ -7523,41 +7574,44 @@
         <v>1</v>
       </c>
       <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
         <v>0.7</v>
       </c>
-      <c r="H15" s="2">
+      <c r="I15" s="2">
         <v>0.5</v>
       </c>
-      <c r="I15" s="46">
+      <c r="J15" s="46">
         <v>0.75</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="K15" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K15" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L15" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N15" s="22">
+      <c r="O15" s="22">
         <v>3</v>
       </c>
-      <c r="O15" s="18">
+      <c r="P15" s="18">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P15" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="15" t="s">
+      <c r="Q15" s="23">
+        <v>1</v>
+      </c>
+      <c r="R15" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="16" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A16" s="91">
         <v>15</v>
       </c>
@@ -7577,41 +7631,44 @@
         <v>1.1499999999999999</v>
       </c>
       <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
         <v>0.6</v>
       </c>
-      <c r="H16" s="41">
+      <c r="I16" s="41">
         <v>0.8</v>
       </c>
-      <c r="I16" s="46">
+      <c r="J16" s="46">
         <v>0.3</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K16" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L16" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M16" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N16" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N16" s="22">
+      <c r="O16" s="22">
         <v>15</v>
       </c>
-      <c r="O16" s="18">
+      <c r="P16" s="18">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P16" s="23">
+      <c r="Q16" s="23">
         <v>3</v>
       </c>
-      <c r="Q16" s="15" t="s">
+      <c r="R16" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="17" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A17" s="91">
         <v>16</v>
       </c>
@@ -7631,41 +7688,44 @@
         <v>1.3</v>
       </c>
       <c r="G17" s="42">
+        <v>0</v>
+      </c>
+      <c r="H17" s="42">
         <v>0.6</v>
       </c>
-      <c r="H17" s="42">
+      <c r="I17" s="42">
         <v>0.97</v>
       </c>
-      <c r="I17" s="46">
+      <c r="J17" s="46">
         <v>0</v>
       </c>
-      <c r="J17" s="19" t="s">
+      <c r="K17" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K17" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L17" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N17" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N17" s="22">
+      <c r="O17" s="22">
         <v>30</v>
       </c>
-      <c r="O17" s="18">
+      <c r="P17" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P17" s="23">
+      <c r="Q17" s="23">
         <v>4</v>
       </c>
-      <c r="Q17" s="15" t="s">
+      <c r="R17" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="18" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A18" s="91">
         <v>17</v>
       </c>
@@ -7685,41 +7745,44 @@
         <v>0.32</v>
       </c>
       <c r="G18" s="44">
+        <v>0</v>
+      </c>
+      <c r="H18" s="44">
         <v>0.6</v>
       </c>
-      <c r="H18" s="43">
+      <c r="I18" s="43">
         <v>0.2</v>
       </c>
-      <c r="I18" s="45">
+      <c r="J18" s="45">
         <v>0.95</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="K18" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L18" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M18" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N18" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N18" s="20">
+      <c r="O18" s="20">
         <v>5</v>
       </c>
-      <c r="O18" s="10">
+      <c r="P18" s="10">
         <f t="shared" si="0"/>
         <v>0.1823870495735308</v>
       </c>
-      <c r="P18" s="21">
+      <c r="Q18" s="21">
         <v>0.3</v>
       </c>
-      <c r="Q18" s="15" t="s">
+      <c r="R18" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="19" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A19" s="91">
         <v>18</v>
       </c>
@@ -7739,41 +7802,44 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G19" s="41">
+        <v>0</v>
+      </c>
+      <c r="H19" s="41">
         <v>0.6</v>
       </c>
-      <c r="H19" s="43">
+      <c r="I19" s="43">
         <v>0.5</v>
       </c>
-      <c r="I19" s="46">
+      <c r="J19" s="46">
         <v>0.75</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="K19" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L19" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M19" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N19" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N19" s="22">
+      <c r="O19" s="22">
         <v>10</v>
       </c>
-      <c r="O19" s="18">
+      <c r="P19" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P19" s="23">
+      <c r="Q19" s="23">
         <v>2</v>
       </c>
-      <c r="Q19" s="15" t="s">
+      <c r="R19" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="20" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A20" s="91">
         <v>19</v>
       </c>
@@ -7793,41 +7859,44 @@
         <v>1</v>
       </c>
       <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
         <v>0.6</v>
       </c>
-      <c r="H20" s="43">
+      <c r="I20" s="43">
         <v>0.8</v>
       </c>
-      <c r="I20" s="46">
+      <c r="J20" s="46">
         <v>0.3</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="K20" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K20" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L20" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M20" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N20" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N20" s="22">
+      <c r="O20" s="22">
         <v>21</v>
       </c>
-      <c r="O20" s="18">
+      <c r="P20" s="18">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P20" s="23">
+      <c r="Q20" s="23">
         <v>3</v>
       </c>
-      <c r="Q20" s="15" t="s">
+      <c r="R20" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="21" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A21" s="91">
         <v>20</v>
       </c>
@@ -7847,42 +7916,45 @@
         <v>1.35</v>
       </c>
       <c r="G21" s="42">
+        <v>0</v>
+      </c>
+      <c r="H21" s="42">
         <v>0.6</v>
       </c>
-      <c r="H21" s="43">
+      <c r="I21" s="43">
         <v>0.95</v>
       </c>
-      <c r="I21" s="46">
+      <c r="J21" s="46">
         <v>0</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="K21" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K21" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L21" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N21" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N21" s="22">
+      <c r="O21" s="22">
         <f>10*30/7</f>
         <v>42.857142857142854</v>
       </c>
-      <c r="O21" s="18">
+      <c r="P21" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P21" s="23">
+      <c r="Q21" s="23">
         <v>4</v>
       </c>
-      <c r="Q21" s="15" t="s">
+      <c r="R21" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="22" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A22" s="91">
         <v>21</v>
       </c>
@@ -7902,41 +7974,44 @@
         <v>0.4</v>
       </c>
       <c r="G22" s="1">
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
         <v>0.6</v>
       </c>
-      <c r="H22" s="44">
+      <c r="I22" s="44">
         <v>0.2</v>
       </c>
-      <c r="I22" s="45">
+      <c r="J22" s="45">
         <v>0.95</v>
       </c>
-      <c r="J22" s="11" t="s">
+      <c r="K22" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L22" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M22" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N22" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N22" s="20">
+      <c r="O22" s="20">
         <v>5</v>
       </c>
-      <c r="O22" s="10">
+      <c r="P22" s="10">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P22" s="21">
+      <c r="Q22" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q22" s="15" t="s">
+      <c r="R22" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="23" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A23" s="91">
         <v>22</v>
       </c>
@@ -7956,41 +8031,44 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="G23" s="41">
+        <v>0</v>
+      </c>
+      <c r="H23" s="41">
         <v>0.6</v>
       </c>
-      <c r="H23" s="41">
+      <c r="I23" s="41">
         <v>0.7</v>
       </c>
-      <c r="I23" s="46">
+      <c r="J23" s="46">
         <v>0.75</v>
       </c>
-      <c r="J23" s="19" t="s">
+      <c r="K23" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K23" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L23" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N23" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N23" s="22">
+      <c r="O23" s="22">
         <v>17</v>
       </c>
-      <c r="O23" s="18">
+      <c r="P23" s="18">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P23" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q23" s="15" t="s">
+      <c r="Q23" s="23">
+        <v>1</v>
+      </c>
+      <c r="R23" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="24" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A24" s="91">
         <v>23</v>
       </c>
@@ -8010,41 +8088,44 @@
         <v>0.9</v>
       </c>
       <c r="G24" s="41">
+        <v>0</v>
+      </c>
+      <c r="H24" s="41">
         <v>0.6</v>
       </c>
-      <c r="H24" s="41">
+      <c r="I24" s="41">
         <v>0.8</v>
       </c>
-      <c r="I24" s="46">
+      <c r="J24" s="46">
         <v>0.3</v>
       </c>
-      <c r="J24" s="19" t="s">
+      <c r="K24" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K24" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L24" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M24" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N24" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N24" s="22">
+      <c r="O24" s="22">
         <v>37</v>
       </c>
-      <c r="O24" s="18">
+      <c r="P24" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P24" s="23">
+      <c r="Q24" s="23">
         <v>2</v>
       </c>
-      <c r="Q24" s="15" t="s">
+      <c r="R24" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="25" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A25" s="91">
         <v>24</v>
       </c>
@@ -8064,42 +8145,45 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G25" s="42">
+        <v>0</v>
+      </c>
+      <c r="H25" s="42">
         <v>0.6</v>
       </c>
-      <c r="H25" s="42">
+      <c r="I25" s="42">
         <v>0.95</v>
       </c>
-      <c r="I25" s="46">
+      <c r="J25" s="46">
         <v>0</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="K25" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K25" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L25" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M25" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N25" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N25" s="22">
+      <c r="O25" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O25" s="18">
+      <c r="P25" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P25" s="23">
+      <c r="Q25" s="23">
         <v>4</v>
       </c>
-      <c r="Q25" s="15" t="s">
+      <c r="R25" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="26" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A26" s="91">
         <v>25</v>
       </c>
@@ -8119,41 +8203,44 @@
         <v>0.25</v>
       </c>
       <c r="G26" s="44">
+        <v>0</v>
+      </c>
+      <c r="H26" s="44">
         <v>0.6</v>
       </c>
-      <c r="H26" s="44">
+      <c r="I26" s="44">
         <v>0.2</v>
       </c>
-      <c r="I26" s="45">
+      <c r="J26" s="45">
         <v>0.95</v>
       </c>
-      <c r="J26" s="11" t="s">
+      <c r="K26" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N26" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N26" s="20">
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
+      <c r="O26" s="20">
+        <v>1</v>
+      </c>
+      <c r="P26" s="10">
         <f t="shared" si="0"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="P26" s="21">
+      <c r="Q26" s="21">
         <v>0.2</v>
       </c>
-      <c r="Q26" s="15" t="s">
+      <c r="R26" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="27" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A27" s="91">
         <v>26</v>
       </c>
@@ -8173,41 +8260,44 @@
         <v>0.36</v>
       </c>
       <c r="G27" s="41">
+        <v>0</v>
+      </c>
+      <c r="H27" s="41">
         <v>0.6</v>
       </c>
-      <c r="H27" s="41">
+      <c r="I27" s="41">
         <v>0.5</v>
       </c>
-      <c r="I27" s="46">
+      <c r="J27" s="46">
         <v>0.75</v>
       </c>
-      <c r="J27" s="19" t="s">
+      <c r="K27" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K27" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L27" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M27" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N27" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N27" s="22">
+      <c r="O27" s="22">
         <v>4</v>
       </c>
-      <c r="O27" s="18">
+      <c r="P27" s="18">
         <f t="shared" si="0"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P27" s="23">
+      <c r="Q27" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q27" s="15" t="s">
+      <c r="R27" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="28" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A28" s="91">
         <v>27</v>
       </c>
@@ -8227,41 +8317,44 @@
         <v>0.53</v>
       </c>
       <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
         <v>0.6</v>
       </c>
-      <c r="H28" s="2">
+      <c r="I28" s="2">
         <v>0.65</v>
       </c>
-      <c r="I28" s="46">
+      <c r="J28" s="46">
         <v>0.3</v>
       </c>
-      <c r="J28" s="19" t="s">
+      <c r="K28" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K28" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L28" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M28" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N28" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N28" s="22">
+      <c r="O28" s="22">
         <v>8</v>
       </c>
-      <c r="O28" s="18">
+      <c r="P28" s="18">
         <f t="shared" si="0"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="P28" s="23">
+      <c r="Q28" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q28" s="15" t="s">
+      <c r="R28" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="29" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A29" s="91">
         <v>28</v>
       </c>
@@ -8281,41 +8374,44 @@
         <v>1</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>0.6</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>0.9</v>
       </c>
-      <c r="I29" s="46">
+      <c r="J29" s="46">
         <v>0</v>
       </c>
-      <c r="J29" s="19" t="s">
+      <c r="K29" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K29" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L29" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M29" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N29" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N29" s="22">
+      <c r="O29" s="22">
         <v>12</v>
       </c>
-      <c r="O29" s="18">
+      <c r="P29" s="18">
         <f t="shared" si="0"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P29" s="23">
+      <c r="Q29" s="23">
         <v>3</v>
       </c>
-      <c r="Q29" s="15" t="s">
+      <c r="R29" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="30" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A30" s="91">
         <v>29</v>
       </c>
@@ -8335,41 +8431,44 @@
         <v>0.25</v>
       </c>
       <c r="G30" s="44">
+        <v>0</v>
+      </c>
+      <c r="H30" s="44">
         <v>0.6</v>
       </c>
-      <c r="H30" s="44">
+      <c r="I30" s="44">
         <v>0.2</v>
       </c>
-      <c r="I30" s="45">
+      <c r="J30" s="45">
         <v>0.95</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M30" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N30" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N30" s="20">
-        <v>1</v>
-      </c>
-      <c r="O30" s="10">
-        <f t="shared" ref="O30:O37" si="1">P30/NORMINV(0.95,0,1)</f>
+      <c r="O30" s="20">
+        <v>1</v>
+      </c>
+      <c r="P30" s="10">
+        <f t="shared" ref="P30:P37" si="1">Q30/NORMINV(0.95,0,1)</f>
         <v>0.12159136638235388</v>
       </c>
-      <c r="P30" s="21">
+      <c r="Q30" s="21">
         <v>0.2</v>
       </c>
-      <c r="Q30" s="15" t="s">
+      <c r="R30" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="31" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A31" s="91">
         <v>30</v>
       </c>
@@ -8389,41 +8488,44 @@
         <v>0.36</v>
       </c>
       <c r="G31" s="41">
+        <v>0</v>
+      </c>
+      <c r="H31" s="41">
         <v>0.6</v>
       </c>
-      <c r="H31" s="41">
+      <c r="I31" s="41">
         <v>0.5</v>
       </c>
-      <c r="I31" s="46">
+      <c r="J31" s="46">
         <v>0.75</v>
       </c>
-      <c r="J31" s="19" t="s">
+      <c r="K31" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K31" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L31" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M31" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N31" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N31" s="22">
+      <c r="O31" s="22">
         <v>4</v>
       </c>
-      <c r="O31" s="18">
+      <c r="P31" s="18">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P31" s="23">
+      <c r="Q31" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q31" s="15" t="s">
+      <c r="R31" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="32" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="32" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A32" s="91">
         <v>31</v>
       </c>
@@ -8443,41 +8545,44 @@
         <v>0.53</v>
       </c>
       <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
         <v>0.6</v>
       </c>
-      <c r="H32" s="2">
+      <c r="I32" s="2">
         <v>0.65</v>
       </c>
-      <c r="I32" s="46">
+      <c r="J32" s="46">
         <v>0.3</v>
       </c>
-      <c r="J32" s="19" t="s">
+      <c r="K32" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K32" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L32" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M32" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N32" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N32" s="22">
+      <c r="O32" s="22">
         <v>8</v>
       </c>
-      <c r="O32" s="18">
+      <c r="P32" s="18">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="P32" s="23">
+      <c r="Q32" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q32" s="15" t="s">
+      <c r="R32" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="33" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="33" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A33" s="91">
         <v>32</v>
       </c>
@@ -8497,41 +8602,44 @@
         <v>1</v>
       </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>0.6</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>0.9</v>
       </c>
-      <c r="I33" s="46">
+      <c r="J33" s="46">
         <v>0</v>
       </c>
-      <c r="J33" s="19" t="s">
+      <c r="K33" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K33" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L33" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M33" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N33" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N33" s="22">
+      <c r="O33" s="22">
         <v>12</v>
       </c>
-      <c r="O33" s="18">
+      <c r="P33" s="18">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P33" s="23">
+      <c r="Q33" s="23">
         <v>3</v>
       </c>
-      <c r="Q33" s="15" t="s">
+      <c r="R33" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="34" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A34" s="91">
         <v>33</v>
       </c>
@@ -8551,41 +8659,44 @@
         <v>0.25</v>
       </c>
       <c r="G34" s="44">
+        <v>0</v>
+      </c>
+      <c r="H34" s="44">
         <v>0.6</v>
       </c>
-      <c r="H34" s="44">
+      <c r="I34" s="44">
         <v>0.2</v>
       </c>
-      <c r="I34" s="45">
+      <c r="J34" s="45">
         <v>0.95</v>
       </c>
-      <c r="J34" s="11" t="s">
+      <c r="K34" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L34" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M34" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N34" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N34" s="20">
-        <v>1</v>
-      </c>
-      <c r="O34" s="10">
+      <c r="O34" s="20">
+        <v>1</v>
+      </c>
+      <c r="P34" s="10">
         <f t="shared" si="1"/>
         <v>0.12159136638235388</v>
       </c>
-      <c r="P34" s="21">
+      <c r="Q34" s="21">
         <v>0.2</v>
       </c>
-      <c r="Q34" s="15" t="s">
+      <c r="R34" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="35" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="35" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A35" s="91">
         <v>34</v>
       </c>
@@ -8605,41 +8716,44 @@
         <v>0.36</v>
       </c>
       <c r="G35" s="41">
+        <v>0</v>
+      </c>
+      <c r="H35" s="41">
         <v>0.6</v>
       </c>
-      <c r="H35" s="41">
+      <c r="I35" s="41">
         <v>0.5</v>
       </c>
-      <c r="I35" s="46">
+      <c r="J35" s="46">
         <v>0.75</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="K35" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K35" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L35" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M35" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N35" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N35" s="22">
+      <c r="O35" s="22">
         <v>4</v>
       </c>
-      <c r="O35" s="18">
+      <c r="P35" s="18">
         <f t="shared" si="1"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P35" s="23">
+      <c r="Q35" s="23">
         <v>0.5</v>
       </c>
-      <c r="Q35" s="15" t="s">
+      <c r="R35" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="36" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="36" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A36" s="91">
         <v>35</v>
       </c>
@@ -8659,41 +8773,44 @@
         <v>0.53</v>
       </c>
       <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
         <v>0.6</v>
       </c>
-      <c r="H36" s="2">
+      <c r="I36" s="2">
         <v>0.65</v>
       </c>
-      <c r="I36" s="46">
+      <c r="J36" s="46">
         <v>0.3</v>
       </c>
-      <c r="J36" s="19" t="s">
+      <c r="K36" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K36" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L36" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M36" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N36" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N36" s="22">
+      <c r="O36" s="22">
         <v>8</v>
       </c>
-      <c r="O36" s="18">
+      <c r="P36" s="18">
         <f t="shared" si="1"/>
         <v>0.91193524786765412</v>
       </c>
-      <c r="P36" s="23">
+      <c r="Q36" s="23">
         <v>1.5</v>
       </c>
-      <c r="Q36" s="15" t="s">
+      <c r="R36" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="37" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="37" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A37" s="91">
         <v>36</v>
       </c>
@@ -8713,41 +8830,44 @@
         <v>1</v>
       </c>
       <c r="G37" s="3">
+        <v>0</v>
+      </c>
+      <c r="H37" s="3">
         <v>0.6</v>
       </c>
-      <c r="H37" s="3">
+      <c r="I37" s="3">
         <v>0.9</v>
       </c>
-      <c r="I37" s="46">
+      <c r="J37" s="46">
         <v>0</v>
       </c>
-      <c r="J37" s="19" t="s">
+      <c r="K37" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K37" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L37" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N37" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N37" s="22">
+      <c r="O37" s="22">
         <v>12</v>
       </c>
-      <c r="O37" s="18">
+      <c r="P37" s="18">
         <f t="shared" si="1"/>
         <v>1.8238704957353082</v>
       </c>
-      <c r="P37" s="23">
+      <c r="Q37" s="23">
         <v>3</v>
       </c>
-      <c r="Q37" s="15" t="s">
+      <c r="R37" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="38" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="38" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A38" s="91">
         <v>37</v>
       </c>
@@ -8767,41 +8887,44 @@
         <v>0.4</v>
       </c>
       <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="1">
         <v>0.6</v>
       </c>
-      <c r="H38" s="44">
+      <c r="I38" s="44">
         <v>0.2</v>
       </c>
-      <c r="I38" s="45">
+      <c r="J38" s="45">
         <v>0.95</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="K38" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K38" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L38" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M38" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N38" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N38" s="20">
+      <c r="O38" s="20">
         <v>3</v>
       </c>
-      <c r="O38" s="10">
+      <c r="P38" s="10">
         <f t="shared" si="0"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P38" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="15" t="s">
+      <c r="Q38" s="21">
+        <v>1</v>
+      </c>
+      <c r="R38" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="39" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="39" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A39" s="91">
         <v>38</v>
       </c>
@@ -8821,41 +8944,44 @@
         <v>0.67</v>
       </c>
       <c r="G39" s="41">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H39" s="41">
         <v>0.7</v>
       </c>
-      <c r="I39" s="46">
+      <c r="I39" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="J39" s="46">
         <v>0.75</v>
       </c>
-      <c r="J39" s="19" t="s">
+      <c r="K39" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K39" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L39" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M39" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N39" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N39" s="22">
+      <c r="O39" s="22">
         <v>20</v>
       </c>
-      <c r="O39" s="18">
+      <c r="P39" s="18">
         <f t="shared" si="0"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P39" s="23">
+      <c r="Q39" s="23">
         <v>2</v>
       </c>
-      <c r="Q39" s="15" t="s">
+      <c r="R39" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="40" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="40" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A40" s="91">
         <v>39</v>
       </c>
@@ -8875,41 +9001,44 @@
         <v>0.85</v>
       </c>
       <c r="G40" s="41">
+        <v>0</v>
+      </c>
+      <c r="H40" s="41">
         <v>0.7</v>
       </c>
-      <c r="H40" s="41">
+      <c r="I40" s="41">
         <v>0.85</v>
       </c>
-      <c r="I40" s="46">
+      <c r="J40" s="46">
         <v>0.3</v>
       </c>
-      <c r="J40" s="19" t="s">
+      <c r="K40" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K40" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L40" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M40" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N40" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N40" s="22">
+      <c r="O40" s="22">
         <v>60</v>
       </c>
-      <c r="O40" s="18">
+      <c r="P40" s="18">
         <f t="shared" si="0"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P40" s="23">
+      <c r="Q40" s="23">
         <v>4</v>
       </c>
-      <c r="Q40" s="15" t="s">
+      <c r="R40" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="41" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A41" s="91">
         <v>40</v>
       </c>
@@ -8929,42 +9058,45 @@
         <v>1</v>
       </c>
       <c r="G41" s="42">
+        <v>0</v>
+      </c>
+      <c r="H41" s="42">
         <v>0.7</v>
       </c>
-      <c r="H41" s="42">
+      <c r="I41" s="42">
         <v>0.99</v>
       </c>
-      <c r="I41" s="46">
+      <c r="J41" s="46">
         <v>0</v>
       </c>
-      <c r="J41" s="19" t="s">
+      <c r="K41" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K41" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L41" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M41" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N41" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N41" s="22">
+      <c r="O41" s="22">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="O41" s="18">
+      <c r="P41" s="18">
         <f t="shared" si="0"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="P41" s="23">
+      <c r="Q41" s="23">
         <v>8</v>
       </c>
-      <c r="Q41" s="15" t="s">
+      <c r="R41" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="42" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="42" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A42" s="91">
         <v>41</v>
       </c>
@@ -8984,41 +9116,44 @@
         <v>0.4</v>
       </c>
       <c r="G42" s="1">
+        <v>0</v>
+      </c>
+      <c r="H42" s="1">
         <v>0.7</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>0.2</v>
       </c>
-      <c r="I42" s="45">
+      <c r="J42" s="45">
         <v>0.95</v>
       </c>
-      <c r="J42" s="11" t="s">
+      <c r="K42" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K42" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L42" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M42" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N42" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N42" s="20">
+      <c r="O42" s="20">
         <v>5</v>
       </c>
-      <c r="O42" s="10">
-        <f t="shared" ref="O42:O61" si="2">P42/NORMINV(0.95,0,1)</f>
+      <c r="P42" s="10">
+        <f t="shared" ref="P42:P61" si="2">Q42/NORMINV(0.95,0,1)</f>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P42" s="21">
+      <c r="Q42" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q42" s="15" t="s">
+      <c r="R42" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="43" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A43" s="91">
         <v>42</v>
       </c>
@@ -9038,41 +9173,44 @@
         <v>0.65</v>
       </c>
       <c r="G43" s="2">
+        <v>0</v>
+      </c>
+      <c r="H43" s="2">
         <v>0.7</v>
       </c>
-      <c r="H43" s="2">
+      <c r="I43" s="2">
         <v>0.75</v>
       </c>
-      <c r="I43" s="46">
+      <c r="J43" s="46">
         <v>0.75</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="K43" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K43" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L43" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M43" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N43" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N43" s="22">
+      <c r="O43" s="22">
         <v>17</v>
       </c>
-      <c r="O43" s="18">
+      <c r="P43" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P43" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="15" t="s">
+      <c r="Q43" s="23">
+        <v>1</v>
+      </c>
+      <c r="R43" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="44" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="44" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A44" s="91">
         <v>43</v>
       </c>
@@ -9092,41 +9230,44 @@
         <v>0.95</v>
       </c>
       <c r="G44" s="41">
+        <v>0</v>
+      </c>
+      <c r="H44" s="41">
         <v>0.7</v>
       </c>
-      <c r="H44" s="41">
+      <c r="I44" s="41">
         <v>0.85</v>
       </c>
-      <c r="I44" s="46">
+      <c r="J44" s="46">
         <v>0.3</v>
       </c>
-      <c r="J44" s="19" t="s">
+      <c r="K44" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K44" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L44" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M44" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N44" s="22">
+      <c r="O44" s="22">
         <v>37</v>
       </c>
-      <c r="O44" s="18">
+      <c r="P44" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P44" s="23">
+      <c r="Q44" s="23">
         <v>2</v>
       </c>
-      <c r="Q44" s="15" t="s">
+      <c r="R44" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="45" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A45" s="91">
         <v>44</v>
       </c>
@@ -9146,42 +9287,45 @@
         <v>1.18</v>
       </c>
       <c r="G45" s="42">
+        <v>0</v>
+      </c>
+      <c r="H45" s="42">
         <v>0.7</v>
       </c>
-      <c r="H45" s="42">
+      <c r="I45" s="42">
         <v>0.9</v>
       </c>
-      <c r="I45" s="46">
+      <c r="J45" s="46">
         <v>0</v>
       </c>
-      <c r="J45" s="19" t="s">
+      <c r="K45" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K45" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L45" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M45" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N45" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N45" s="22">
+      <c r="O45" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O45" s="18">
+      <c r="P45" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P45" s="23">
+      <c r="Q45" s="23">
         <v>4</v>
       </c>
-      <c r="Q45" s="15" t="s">
+      <c r="R45" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="46" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A46" s="91">
         <v>45</v>
       </c>
@@ -9201,41 +9345,44 @@
         <v>0.25</v>
       </c>
       <c r="G46" s="1">
+        <v>0</v>
+      </c>
+      <c r="H46" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H46" s="44">
+      <c r="I46" s="44">
         <v>0.2</v>
       </c>
-      <c r="I46" s="45">
+      <c r="J46" s="45">
         <v>0.95</v>
       </c>
-      <c r="J46" s="11" t="s">
+      <c r="K46" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K46" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L46" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M46" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N46" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N46" s="20">
+      <c r="O46" s="20">
         <v>5</v>
       </c>
-      <c r="O46" s="10">
+      <c r="P46" s="10">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P46" s="21">
+      <c r="Q46" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q46" s="15" t="s">
+      <c r="R46" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="47" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A47" s="91">
         <v>46</v>
       </c>
@@ -9255,41 +9402,44 @@
         <v>0.52</v>
       </c>
       <c r="G47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="2">
         <v>0.7</v>
       </c>
-      <c r="H47" s="41">
+      <c r="I47" s="41">
         <v>0.7</v>
       </c>
-      <c r="I47" s="46">
+      <c r="J47" s="46">
         <v>0.75</v>
       </c>
-      <c r="J47" s="19" t="s">
+      <c r="K47" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K47" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L47" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M47" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N47" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N47" s="22">
+      <c r="O47" s="22">
         <v>17</v>
       </c>
-      <c r="O47" s="18">
+      <c r="P47" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P47" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q47" s="15" t="s">
+      <c r="Q47" s="23">
+        <v>1</v>
+      </c>
+      <c r="R47" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="48" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="48" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A48" s="91">
         <v>47</v>
       </c>
@@ -9309,41 +9459,44 @@
         <v>0.95</v>
       </c>
       <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2">
         <v>0.6</v>
       </c>
-      <c r="H48" s="41">
+      <c r="I48" s="41">
         <v>0.8</v>
       </c>
-      <c r="I48" s="46">
+      <c r="J48" s="46">
         <v>0.3</v>
       </c>
-      <c r="J48" s="19" t="s">
+      <c r="K48" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K48" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L48" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M48" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N48" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N48" s="22">
+      <c r="O48" s="22">
         <v>37</v>
       </c>
-      <c r="O48" s="18">
+      <c r="P48" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P48" s="23">
+      <c r="Q48" s="23">
         <v>2</v>
       </c>
-      <c r="Q48" s="15" t="s">
+      <c r="R48" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="49" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A49" s="91">
         <v>48</v>
       </c>
@@ -9363,42 +9516,45 @@
         <v>1.64</v>
       </c>
       <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
         <v>0.7</v>
       </c>
-      <c r="H49" s="42">
+      <c r="I49" s="42">
         <v>0.99</v>
       </c>
-      <c r="I49" s="46">
+      <c r="J49" s="46">
         <v>0</v>
       </c>
-      <c r="J49" s="19" t="s">
+      <c r="K49" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K49" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L49" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M49" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N49" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N49" s="22">
+      <c r="O49" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O49" s="18">
+      <c r="P49" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P49" s="23">
+      <c r="Q49" s="23">
         <v>4</v>
       </c>
-      <c r="Q49" s="15" t="s">
+      <c r="R49" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="50" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="50" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A50" s="91">
         <v>49</v>
       </c>
@@ -9418,41 +9574,44 @@
         <v>0.53</v>
       </c>
       <c r="G50" s="44">
+        <v>0</v>
+      </c>
+      <c r="H50" s="44">
         <v>0.63</v>
       </c>
-      <c r="H50" s="44">
+      <c r="I50" s="44">
         <v>0.2</v>
       </c>
-      <c r="I50" s="45">
+      <c r="J50" s="45">
         <v>0.95</v>
       </c>
-      <c r="J50" s="11" t="s">
+      <c r="K50" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L50" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M50" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N50" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N50" s="20">
+      <c r="O50" s="20">
         <v>5</v>
       </c>
-      <c r="O50" s="10">
+      <c r="P50" s="10">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P50" s="21">
+      <c r="Q50" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q50" s="15" t="s">
+      <c r="R50" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="51" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A51" s="91">
         <v>50</v>
       </c>
@@ -9472,41 +9631,44 @@
         <v>0.92</v>
       </c>
       <c r="G51" s="41">
+        <v>0</v>
+      </c>
+      <c r="H51" s="41">
         <v>0.65</v>
       </c>
-      <c r="H51" s="41">
+      <c r="I51" s="41">
         <v>0.45</v>
       </c>
-      <c r="I51" s="46">
+      <c r="J51" s="46">
         <v>0.75</v>
       </c>
-      <c r="J51" s="19" t="s">
+      <c r="K51" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K51" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L51" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M51" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N51" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N51" s="22">
+      <c r="O51" s="22">
         <v>17</v>
       </c>
-      <c r="O51" s="18">
+      <c r="P51" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P51" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q51" s="15" t="s">
+      <c r="Q51" s="23">
+        <v>1</v>
+      </c>
+      <c r="R51" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="52" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="52" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A52" s="91">
         <v>51</v>
       </c>
@@ -9526,41 +9688,44 @@
         <v>1.6</v>
       </c>
       <c r="G52" s="2">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2">
         <v>0.6</v>
       </c>
-      <c r="H52" s="2">
+      <c r="I52" s="2">
         <v>0.75</v>
       </c>
-      <c r="I52" s="46">
+      <c r="J52" s="46">
         <v>0.3</v>
       </c>
-      <c r="J52" s="19" t="s">
+      <c r="K52" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K52" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L52" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M52" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N52" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N52" s="22">
+      <c r="O52" s="22">
         <v>37</v>
       </c>
-      <c r="O52" s="18">
+      <c r="P52" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P52" s="23">
+      <c r="Q52" s="23">
         <v>2</v>
       </c>
-      <c r="Q52" s="15" t="s">
+      <c r="R52" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="53" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="53" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A53" s="91">
         <v>52</v>
       </c>
@@ -9580,42 +9745,45 @@
         <v>1.8</v>
       </c>
       <c r="G53" s="42">
+        <v>0</v>
+      </c>
+      <c r="H53" s="42">
         <v>0.6</v>
       </c>
-      <c r="H53" s="42">
+      <c r="I53" s="42">
         <v>0.95</v>
       </c>
-      <c r="I53" s="46">
+      <c r="J53" s="46">
         <v>0</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="K53" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K53" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L53" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M53" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N53" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N53" s="22">
+      <c r="O53" s="22">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O53" s="18">
+      <c r="P53" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P53" s="23">
+      <c r="Q53" s="23">
         <v>4</v>
       </c>
-      <c r="Q53" s="15" t="s">
+      <c r="R53" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="54" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="54" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A54" s="91">
         <v>53</v>
       </c>
@@ -9635,41 +9803,44 @@
         <v>0.6</v>
       </c>
       <c r="G54" s="44">
+        <v>0</v>
+      </c>
+      <c r="H54" s="44">
         <v>0.6</v>
       </c>
-      <c r="H54" s="44">
+      <c r="I54" s="44">
         <v>0.2</v>
       </c>
-      <c r="I54" s="45">
+      <c r="J54" s="45">
         <v>0.95</v>
       </c>
-      <c r="J54" s="11" t="s">
+      <c r="K54" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="K54" s="11" t="s">
-        <v>218</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>218</v>
       </c>
       <c r="M54" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="N54" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="N54" s="20">
+      <c r="O54" s="20">
         <v>5</v>
       </c>
-      <c r="O54" s="10">
+      <c r="P54" s="10">
         <f t="shared" si="2"/>
         <v>0.30397841595588471</v>
       </c>
-      <c r="P54" s="21">
+      <c r="Q54" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q54" s="15" t="s">
+      <c r="R54" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="55" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="55" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A55" s="91">
         <v>54</v>
       </c>
@@ -9689,41 +9860,44 @@
         <v>0.85</v>
       </c>
       <c r="G55" s="41">
+        <v>0</v>
+      </c>
+      <c r="H55" s="41">
         <v>0.6</v>
       </c>
-      <c r="H55" s="41">
+      <c r="I55" s="41">
         <v>0.45</v>
       </c>
-      <c r="I55" s="46">
+      <c r="J55" s="46">
         <v>0.75</v>
       </c>
-      <c r="J55" s="19" t="s">
+      <c r="K55" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K55" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L55" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M55" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N55" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N55" s="22">
+      <c r="O55" s="22">
         <v>17</v>
       </c>
-      <c r="O55" s="18">
+      <c r="P55" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P55" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q55" s="15" t="s">
+      <c r="Q55" s="23">
+        <v>1</v>
+      </c>
+      <c r="R55" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="56" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="56" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A56" s="91">
         <v>55</v>
       </c>
@@ -9743,41 +9917,44 @@
         <v>1.25</v>
       </c>
       <c r="G56" s="2">
+        <v>0</v>
+      </c>
+      <c r="H56" s="2">
         <v>0.6</v>
       </c>
-      <c r="H56" s="2">
+      <c r="I56" s="2">
         <v>0.75</v>
       </c>
-      <c r="I56" s="46">
+      <c r="J56" s="46">
         <v>0.3</v>
       </c>
-      <c r="J56" s="19" t="s">
+      <c r="K56" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K56" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L56" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M56" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N56" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N56" s="22">
+      <c r="O56" s="22">
         <v>37</v>
       </c>
-      <c r="O56" s="18">
+      <c r="P56" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P56" s="23">
+      <c r="Q56" s="23">
         <v>2</v>
       </c>
-      <c r="Q56" s="15" t="s">
+      <c r="R56" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="57" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="57" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A57" s="91">
         <v>56</v>
       </c>
@@ -9797,42 +9974,45 @@
         <v>1.5</v>
       </c>
       <c r="G57" s="42">
+        <v>0</v>
+      </c>
+      <c r="H57" s="42">
         <v>0.6</v>
       </c>
-      <c r="H57" s="42">
+      <c r="I57" s="42">
         <v>0.95</v>
       </c>
-      <c r="I57" s="46">
+      <c r="J57" s="46">
         <v>0</v>
       </c>
-      <c r="J57" s="29" t="s">
+      <c r="K57" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K57" s="29" t="s">
-        <v>218</v>
       </c>
       <c r="L57" s="29" t="s">
         <v>218</v>
       </c>
       <c r="M57" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="N57" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="N57" s="24">
+      <c r="O57" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O57" s="25">
+      <c r="P57" s="25">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P57" s="26">
+      <c r="Q57" s="26">
         <v>4</v>
       </c>
-      <c r="Q57" s="15" t="s">
+      <c r="R57" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="58" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A58" s="91">
         <v>57</v>
       </c>
@@ -9852,41 +10032,44 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
         <v>0.73</v>
       </c>
-      <c r="H58" s="1">
+      <c r="I58" s="1">
         <v>0.1</v>
       </c>
-      <c r="I58" s="45">
+      <c r="J58" s="45">
         <v>0.95</v>
       </c>
-      <c r="J58" s="19" t="s">
+      <c r="K58" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K58" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L58" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M58" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N58" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N58" s="22">
+      <c r="O58" s="22">
         <v>5</v>
       </c>
-      <c r="O58" s="18">
+      <c r="P58" s="18">
         <f t="shared" si="2"/>
         <v>0.60795683191176941</v>
       </c>
-      <c r="P58" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="15" t="s">
+      <c r="Q58" s="21">
+        <v>1</v>
+      </c>
+      <c r="R58" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="59" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A59" s="91">
         <v>58</v>
       </c>
@@ -9906,41 +10089,44 @@
         <v>0.72</v>
       </c>
       <c r="G59" s="2">
+        <v>0</v>
+      </c>
+      <c r="H59" s="2">
         <v>0.73</v>
       </c>
-      <c r="H59" s="2">
+      <c r="I59" s="2">
         <v>0.4</v>
       </c>
-      <c r="I59" s="46">
+      <c r="J59" s="46">
         <v>0.75</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="K59" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K59" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L59" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M59" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N59" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N59" s="22">
+      <c r="O59" s="22">
         <v>20</v>
       </c>
-      <c r="O59" s="18">
+      <c r="P59" s="18">
         <f t="shared" si="2"/>
         <v>1.2159136638235388</v>
       </c>
-      <c r="P59" s="23">
+      <c r="Q59" s="23">
         <v>2</v>
       </c>
-      <c r="Q59" s="15" t="s">
+      <c r="R59" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="60" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="60" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A60" s="91">
         <v>59</v>
       </c>
@@ -9960,41 +10146,44 @@
         <v>1.66</v>
       </c>
       <c r="G60" s="2">
+        <v>0</v>
+      </c>
+      <c r="H60" s="2">
         <v>0.73</v>
       </c>
-      <c r="H60" s="2">
+      <c r="I60" s="2">
         <v>0.8</v>
       </c>
-      <c r="I60" s="46">
+      <c r="J60" s="46">
         <v>0.3</v>
       </c>
-      <c r="J60" s="19" t="s">
+      <c r="K60" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K60" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L60" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M60" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N60" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N60" s="22">
+      <c r="O60" s="22">
         <v>50</v>
       </c>
-      <c r="O60" s="18">
+      <c r="P60" s="18">
         <f t="shared" si="2"/>
         <v>2.4318273276470777</v>
       </c>
-      <c r="P60" s="23">
+      <c r="Q60" s="23">
         <v>4</v>
       </c>
-      <c r="Q60" s="15" t="s">
+      <c r="R60" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="61" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="61" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A61" s="91">
         <v>60</v>
       </c>
@@ -10014,42 +10203,45 @@
         <v>2.17</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>0.73</v>
       </c>
-      <c r="H61" s="3">
-        <v>1</v>
-      </c>
-      <c r="I61" s="46">
+      <c r="I61" s="3">
+        <v>1</v>
+      </c>
+      <c r="J61" s="46">
         <v>0</v>
       </c>
-      <c r="J61" s="29" t="s">
+      <c r="K61" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K61" s="29" t="s">
-        <v>218</v>
       </c>
       <c r="L61" s="29" t="s">
         <v>218</v>
       </c>
       <c r="M61" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="N61" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="N61" s="24">
+      <c r="O61" s="24">
         <f>24*30/7</f>
         <v>102.85714285714286</v>
       </c>
-      <c r="O61" s="25">
+      <c r="P61" s="25">
         <f t="shared" si="2"/>
         <v>4.8636546552941553</v>
       </c>
-      <c r="P61" s="26">
+      <c r="Q61" s="26">
         <v>8</v>
       </c>
-      <c r="Q61" s="15" t="s">
+      <c r="R61" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="62" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="62" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A62" s="91">
         <v>61</v>
       </c>
@@ -10069,40 +10261,43 @@
         <v>0.15</v>
       </c>
       <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
         <v>0.75</v>
       </c>
-      <c r="H62" s="44">
+      <c r="I62" s="44">
         <v>0.2</v>
       </c>
-      <c r="I62" s="45">
+      <c r="J62" s="45">
         <v>0.95</v>
       </c>
-      <c r="J62" s="19" t="s">
+      <c r="K62" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K62" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L62" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M62" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N62" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N62" s="20">
+      <c r="O62" s="20">
         <v>5</v>
       </c>
-      <c r="O62" s="10">
+      <c r="P62" s="10">
         <v>0.30397841595588471</v>
       </c>
-      <c r="P62" s="21">
+      <c r="Q62" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q62" s="15" t="s">
+      <c r="R62" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="63" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="63" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A63" s="91">
         <v>62</v>
       </c>
@@ -10122,40 +10317,43 @@
         <v>0.36</v>
       </c>
       <c r="G63" s="2">
+        <v>0</v>
+      </c>
+      <c r="H63" s="2">
         <v>0.65</v>
       </c>
-      <c r="H63" s="41">
+      <c r="I63" s="41">
         <v>0.45</v>
       </c>
-      <c r="I63" s="46">
+      <c r="J63" s="46">
         <v>0.75</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="K63" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K63" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L63" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M63" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N63" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N63" s="22">
+      <c r="O63" s="22">
         <v>17</v>
       </c>
-      <c r="O63" s="18">
+      <c r="P63" s="18">
         <v>0.60795683191176941</v>
       </c>
-      <c r="P63" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q63" s="15" t="s">
+      <c r="Q63" s="23">
+        <v>1</v>
+      </c>
+      <c r="R63" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="64" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="64" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A64" s="91">
         <v>63</v>
       </c>
@@ -10175,40 +10373,43 @@
         <v>0.72</v>
       </c>
       <c r="G64" s="2">
+        <v>0</v>
+      </c>
+      <c r="H64" s="2">
         <v>0.65</v>
       </c>
-      <c r="H64" s="41">
+      <c r="I64" s="41">
         <v>0.75</v>
       </c>
-      <c r="I64" s="46">
+      <c r="J64" s="46">
         <v>0.3</v>
       </c>
-      <c r="J64" s="19" t="s">
+      <c r="K64" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K64" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L64" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M64" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N64" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N64" s="22">
+      <c r="O64" s="22">
         <v>37</v>
       </c>
-      <c r="O64" s="18">
+      <c r="P64" s="18">
         <v>1.2159136638235388</v>
       </c>
-      <c r="P64" s="23">
+      <c r="Q64" s="23">
         <v>2</v>
       </c>
-      <c r="Q64" s="15" t="s">
+      <c r="R64" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="65" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="65" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A65" s="91">
         <v>64</v>
       </c>
@@ -10228,41 +10429,44 @@
         <v>1.5</v>
       </c>
       <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
         <v>0.8</v>
       </c>
-      <c r="H65" s="42">
+      <c r="I65" s="42">
         <v>0.95</v>
       </c>
-      <c r="I65" s="47">
+      <c r="J65" s="47">
         <v>0</v>
       </c>
-      <c r="J65" s="29" t="s">
+      <c r="K65" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K65" s="29" t="s">
-        <v>218</v>
       </c>
       <c r="L65" s="29" t="s">
         <v>218</v>
       </c>
       <c r="M65" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="N65" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="N65" s="24">
+      <c r="O65" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O65" s="29">
+      <c r="P65" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="P65" s="26">
+      <c r="Q65" s="26">
         <v>4</v>
       </c>
-      <c r="Q65" s="15" t="s">
+      <c r="R65" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="66" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="66" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A66" s="91">
         <v>65</v>
       </c>
@@ -10282,40 +10486,43 @@
         <v>10</v>
       </c>
       <c r="G66" s="1">
-        <v>1</v>
-      </c>
-      <c r="H66" s="44">
         <v>0</v>
       </c>
-      <c r="I66" s="45">
-        <v>1</v>
-      </c>
-      <c r="J66" s="19" t="s">
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="44">
+        <v>0</v>
+      </c>
+      <c r="J66" s="45">
+        <v>1</v>
+      </c>
+      <c r="K66" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K66" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L66" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M66" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N66" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N66" s="20">
+      <c r="O66" s="20">
         <v>5</v>
       </c>
-      <c r="O66" s="10">
+      <c r="P66" s="10">
         <v>0.30397841595588471</v>
       </c>
-      <c r="P66" s="21">
+      <c r="Q66" s="21">
         <v>0.5</v>
       </c>
-      <c r="Q66" s="15" t="s">
+      <c r="R66" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="67" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="67" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A67" s="91">
         <v>66</v>
       </c>
@@ -10335,40 +10542,43 @@
         <v>10</v>
       </c>
       <c r="G67" s="2">
-        <v>1</v>
-      </c>
-      <c r="H67" s="41">
         <v>0</v>
       </c>
-      <c r="I67" s="46">
-        <v>1</v>
-      </c>
-      <c r="J67" s="19" t="s">
+      <c r="H67" s="2">
+        <v>1</v>
+      </c>
+      <c r="I67" s="41">
+        <v>0</v>
+      </c>
+      <c r="J67" s="46">
+        <v>1</v>
+      </c>
+      <c r="K67" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K67" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L67" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M67" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N67" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N67" s="22">
+      <c r="O67" s="22">
         <v>17</v>
       </c>
-      <c r="O67" s="18">
+      <c r="P67" s="18">
         <v>0.60795683191176941</v>
       </c>
-      <c r="P67" s="23">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="15" t="s">
+      <c r="Q67" s="23">
+        <v>1</v>
+      </c>
+      <c r="R67" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="68" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A68" s="91">
         <v>67</v>
       </c>
@@ -10388,40 +10598,43 @@
         <v>10</v>
       </c>
       <c r="G68" s="2">
-        <v>1</v>
-      </c>
-      <c r="H68" s="41">
         <v>0</v>
       </c>
-      <c r="I68" s="46">
-        <v>1</v>
-      </c>
-      <c r="J68" s="19" t="s">
+      <c r="H68" s="2">
+        <v>1</v>
+      </c>
+      <c r="I68" s="41">
+        <v>0</v>
+      </c>
+      <c r="J68" s="46">
+        <v>1</v>
+      </c>
+      <c r="K68" s="19" t="s">
         <v>30</v>
-      </c>
-      <c r="K68" s="19" t="s">
-        <v>218</v>
       </c>
       <c r="L68" s="19" t="s">
         <v>218</v>
       </c>
       <c r="M68" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="N68" s="19" t="s">
         <v>221</v>
       </c>
-      <c r="N68" s="22">
+      <c r="O68" s="22">
         <v>37</v>
       </c>
-      <c r="O68" s="18">
+      <c r="P68" s="18">
         <v>1.2159136638235388</v>
       </c>
-      <c r="P68" s="23">
+      <c r="Q68" s="23">
         <v>2</v>
       </c>
-      <c r="Q68" s="15" t="s">
+      <c r="R68" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="16" customFormat="1" ht="14" customHeight="1">
+    <row r="69" spans="1:18" s="16" customFormat="1" ht="14" customHeight="1">
       <c r="A69" s="91">
         <v>68</v>
       </c>
@@ -10441,161 +10654,164 @@
         <v>10</v>
       </c>
       <c r="G69" s="3">
-        <v>1</v>
-      </c>
-      <c r="H69" s="42">
         <v>0</v>
       </c>
-      <c r="I69" s="47">
-        <v>1</v>
-      </c>
-      <c r="J69" s="29" t="s">
+      <c r="H69" s="3">
+        <v>1</v>
+      </c>
+      <c r="I69" s="42">
+        <v>0</v>
+      </c>
+      <c r="J69" s="47">
+        <v>1</v>
+      </c>
+      <c r="K69" s="29" t="s">
         <v>30</v>
-      </c>
-      <c r="K69" s="29" t="s">
-        <v>218</v>
       </c>
       <c r="L69" s="29" t="s">
         <v>218</v>
       </c>
       <c r="M69" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="N69" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="N69" s="24">
+      <c r="O69" s="24">
         <f>18*30/7</f>
         <v>77.142857142857139</v>
       </c>
-      <c r="O69" s="29">
+      <c r="P69" s="29">
         <v>2.4318273276470777</v>
       </c>
-      <c r="P69" s="26">
+      <c r="Q69" s="26">
         <v>4</v>
       </c>
-      <c r="Q69" s="15" t="s">
+      <c r="R69" s="15" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="B5:Q68">
+  <sortState ref="B5:R68">
     <sortCondition ref="B133:B196"/>
     <sortCondition ref="C133:C196"/>
   </sortState>
-  <conditionalFormatting sqref="F10:H13">
+  <conditionalFormatting sqref="F10:I13">
     <cfRule type="containsText" dxfId="23" priority="22" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F10)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:H9">
+  <conditionalFormatting sqref="F2:I9">
     <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:H17">
+  <conditionalFormatting sqref="F14:I17">
     <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F14)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:G25">
+  <conditionalFormatting sqref="F22:H25">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26:H29">
+  <conditionalFormatting sqref="F26:I29">
     <cfRule type="containsText" dxfId="19" priority="20" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F26)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42:H45">
+  <conditionalFormatting sqref="F42:I45">
     <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F42)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38:G41">
+  <conditionalFormatting sqref="F38:H41">
     <cfRule type="containsText" dxfId="17" priority="18" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:G21">
+  <conditionalFormatting sqref="F18:H21">
     <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F54:G57">
+  <conditionalFormatting sqref="F54:H57">
     <cfRule type="containsText" dxfId="15" priority="16" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:H53">
+  <conditionalFormatting sqref="F50:I53">
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:G61">
+  <conditionalFormatting sqref="F58:H61">
     <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H58:H61">
+  <conditionalFormatting sqref="I58:I61">
     <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H58)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46:G49">
+  <conditionalFormatting sqref="F46:H49">
     <cfRule type="containsText" dxfId="11" priority="12" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18:H21">
+  <conditionalFormatting sqref="I18:I21">
     <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H18)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H22:H25">
+  <conditionalFormatting sqref="I22:I25">
     <cfRule type="containsText" dxfId="9" priority="10" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H22)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38:H41">
+  <conditionalFormatting sqref="I38:I41">
     <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H46:H49">
+  <conditionalFormatting sqref="I46:I49">
     <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H46)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I46)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H54:H57">
+  <conditionalFormatting sqref="I54:I57">
     <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H54)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I54)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F62:G65">
+  <conditionalFormatting sqref="F62:H65">
     <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H62:H65">
+  <conditionalFormatting sqref="I62:I65">
     <cfRule type="containsText" dxfId="4" priority="6" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H62)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I62)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F66:G69">
+  <conditionalFormatting sqref="F66:H69">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H66:H69">
+  <conditionalFormatting sqref="I66:I69">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="NA">
-      <formula>NOT(ISERROR(SEARCH("NA",H66)))</formula>
+      <formula>NOT(ISERROR(SEARCH("NA",I66)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30:H33">
+  <conditionalFormatting sqref="F30:I33">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34:H37">
+  <conditionalFormatting sqref="F34:I37">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="NA">
       <formula>NOT(ISERROR(SEARCH("NA",F34)))</formula>
     </cfRule>
